--- a/3팀보고.xlsx
+++ b/3팀보고.xlsx
@@ -3652,7 +3652,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5717478e-22d2-2a31-5717-478e22d22a31}</x14:id>
+          <x14:id>{3474246d-4141-4352-3474-246d41414352}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3666,7 +3666,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d393c38a-a686-a4b5-d393-c38aa686a4b5}</x14:id>
+          <x14:id>{b8f8a8e1-cdcd-cfde-b8f8-a8e1cdcdcfde}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3680,7 +3680,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5f1f4f16-2a4a-2839-5f1f-4f162a4a2839}</x14:id>
+          <x14:id>{3c7c2c65-4949-4b5a-3c7c-2c6549494b5a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3694,7 +3694,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{db9bcb82-ae8e-acbd-db9b-cb82ae8eacbd}</x14:id>
+          <x14:id>{84c494d9-f5f6-f7e6-84c4-94d9f5f6f7e6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3708,7 +3708,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6727773e-1231-1dc1-6727-773e12311dc1}</x14:id>
+          <x14:id>{d444145d-7172-7362-d444-145d71727362}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3722,7 +3722,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e3a3f3ba-96b5-9485-e3a3-f3ba96b59485}</x14:id>
+          <x14:id>{6c2c7c35-1918-1b3a-6c2c-7c3519181b3a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3736,7 +3736,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{11514148-6455-6677-1151-414864556677}</x14:id>
+          <x14:id>{e8a8f8b1-9d9c-9f8e-e8a8-f8b19d9c9f8e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3750,7 +3750,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{95d585cc-e3d1-e2f3-95d5-85cce3d1e2f3}</x14:id>
+          <x14:id>{6424743d-1113-13a2-6424-743d111313a2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3764,7 +3764,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1959d947-6c5d-6e7f-1959-d9476c5d6e7f}</x14:id>
+          <x14:id>{eeaefeb9-9594-9786-eeae-feb995949786}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3778,7 +3778,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9ddd8dc4-e8d9-eafb-9ddd-8dc4e8d9eafb}</x14:id>
+          <x14:id>{7c3c6c25-f9a9-0b1a-7c3c-6c25f9a90b1a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3792,7 +3792,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e1411158-7444-7667-e141-115874447667}</x14:id>
+          <x14:id>{f8b8e8a1-8d8d-8f9e-f8b8-e8a18d8d8f9e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3806,7 +3806,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{85c595dc-f2c7-f2e3-85c5-95dcf2c7f2e3}</x14:id>
+          <x14:id>{7434642d-6131-9312-7434-642d61319312}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3830,7 +3830,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{79491956-7c4c-7e6f-7949-19567c4c7e6f}</x14:id>
+          <x14:id>{ffbfefa9-8585-8796-ffbf-efa985858796}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3844,7 +3844,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8dcd9dd4-f8c8-faeb-8dcd-9dd4f8c8faeb}</x14:id>
+          <x14:id>{4cdc5c15-393a-3b2a-4cdc-5c15393a3b2a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3858,7 +3858,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{31712168-4477-4657-3171-216844774657}</x14:id>
+          <x14:id>{c888d891-bdbe-bfae-c888-d891bdbebfae}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3872,7 +3872,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b5f5a5ec-c5f3-c2d3-b5f5-a5ecc5f3c2d3}</x14:id>
+          <x14:id>{aaeabaf3-dffe-fccd-aaea-baf3dffefccd}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3886,7 +3886,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dd9dcd84-a899-aabb-dd9d-cd84a899aabb}</x14:id>
+          <x14:id>{2e6e3e77-5b7a-7849-2e6e-3e775b7a7849}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3898,7 +3898,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5717478e-22d2-2a31-5717-478e22d22a31}">
+          <x14:cfRule type="dataBar" id="{3474246d-4141-4352-3474-246d41414352}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3908,7 +3908,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d393c38a-a686-a4b5-d393-c38aa686a4b5}">
+          <x14:cfRule type="dataBar" id="{b8f8a8e1-cdcd-cfde-b8f8-a8e1cdcdcfde}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3918,7 +3918,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5f1f4f16-2a4a-2839-5f1f-4f162a4a2839}">
+          <x14:cfRule type="dataBar" id="{3c7c2c65-4949-4b5a-3c7c-2c6549494b5a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3928,7 +3928,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{db9bcb82-ae8e-acbd-db9b-cb82ae8eacbd}">
+          <x14:cfRule type="dataBar" id="{84c494d9-f5f6-f7e6-84c4-94d9f5f6f7e6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3938,7 +3938,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6727773e-1231-1dc1-6727-773e12311dc1}">
+          <x14:cfRule type="dataBar" id="{d444145d-7172-7362-d444-145d71727362}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3948,7 +3948,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e3a3f3ba-96b5-9485-e3a3-f3ba96b59485}">
+          <x14:cfRule type="dataBar" id="{6c2c7c35-1918-1b3a-6c2c-7c3519181b3a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3958,7 +3958,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{11514148-6455-6677-1151-414864556677}">
+          <x14:cfRule type="dataBar" id="{e8a8f8b1-9d9c-9f8e-e8a8-f8b19d9c9f8e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3968,7 +3968,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{95d585cc-e3d1-e2f3-95d5-85cce3d1e2f3}">
+          <x14:cfRule type="dataBar" id="{6424743d-1113-13a2-6424-743d111313a2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3978,7 +3978,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1959d947-6c5d-6e7f-1959-d9476c5d6e7f}">
+          <x14:cfRule type="dataBar" id="{eeaefeb9-9594-9786-eeae-feb995949786}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3988,7 +3988,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9ddd8dc4-e8d9-eafb-9ddd-8dc4e8d9eafb}">
+          <x14:cfRule type="dataBar" id="{7c3c6c25-f9a9-0b1a-7c3c-6c25f9a90b1a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3998,7 +3998,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e1411158-7444-7667-e141-115874447667}">
+          <x14:cfRule type="dataBar" id="{f8b8e8a1-8d8d-8f9e-f8b8-e8a18d8d8f9e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4008,7 +4008,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{85c595dc-f2c7-f2e3-85c5-95dcf2c7f2e3}">
+          <x14:cfRule type="dataBar" id="{7434642d-6131-9312-7434-642d61319312}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4018,7 +4018,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{79491956-7c4c-7e6f-7949-19567c4c7e6f}">
+          <x14:cfRule type="dataBar" id="{ffbfefa9-8585-8796-ffbf-efa985858796}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4028,7 +4028,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8dcd9dd4-f8c8-faeb-8dcd-9dd4f8c8faeb}">
+          <x14:cfRule type="dataBar" id="{4cdc5c15-393a-3b2a-4cdc-5c15393a3b2a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4038,7 +4038,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{31712168-4477-4657-3171-216844774657}">
+          <x14:cfRule type="dataBar" id="{c888d891-bdbe-bfae-c888-d891bdbebfae}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4048,7 +4048,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b5f5a5ec-c5f3-c2d3-b5f5-a5ecc5f3c2d3}">
+          <x14:cfRule type="dataBar" id="{aaeabaf3-dffe-fccd-aaea-baf3dffefccd}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4058,7 +4058,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{dd9dcd84-a899-aabb-dd9d-cd84a899aabb}">
+          <x14:cfRule type="dataBar" id="{2e6e3e77-5b7a-7849-2e6e-3e775b7a7849}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4075,10 +4075,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:T48"/>
+  <dimension ref="B1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
@@ -4090,8 +4090,7 @@
     <col min="5" max="5" style="1" width="26.37999916" hidden="1" customWidth="1" outlineLevel="0"/>
     <col min="6" max="6" style="8" width="10.63000011" customWidth="1" outlineLevel="0"/>
     <col min="7" max="20" style="4" width="10.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="21" max="16383" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="16384" max="16384" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="21" max="16384" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:20">
@@ -4147,63 +4146,63 @@
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <f>AVERAGE(F16,F24,F30,F39)</f>
-        <v>0</v>
+        <f>AVERAGE(F11,F13,F19,F28)</f>
+        <v>0.0175</v>
       </c>
       <c r="G3" s="6">
-        <f>AVERAGE(G16,G24,G30,G39)</f>
-        <v>0</v>
+        <f>AVERAGE(G11,G13,G19,G28)</f>
+        <v>0.15</v>
       </c>
       <c r="H3" s="6">
-        <f>AVERAGE(H16,H24,H30,H39)</f>
-        <v>0</v>
+        <f>AVERAGE(H11,H13,H19,H28)</f>
+        <v>0.2275</v>
       </c>
       <c r="I3" s="6">
-        <f>AVERAGE(I16,I24,I30,I39)</f>
-        <v>0</v>
+        <f>AVERAGE(I11,I13,I19,I28)</f>
+        <v>0.305</v>
       </c>
       <c r="J3" s="6">
-        <f>AVERAGE(J16,J24,J30,J39)</f>
-        <v>0</v>
+        <f>AVERAGE(J11,J13,J19,J28)</f>
+        <v>0.355</v>
       </c>
       <c r="K3" s="6">
-        <f>AVERAGE(K16,K24,K30,K39)</f>
-        <v>0</v>
+        <f>AVERAGE(K11,K13,K19,K28)</f>
+        <v>0.415</v>
       </c>
       <c r="L3" s="6">
-        <f>AVERAGE(L16,L24,L30,L39)</f>
+        <f>AVERAGE(L11,L13,L19,L28)</f>
         <v>0</v>
       </c>
       <c r="M3" s="6">
-        <f>AVERAGE(M16,M24,M30,M39)</f>
+        <f>AVERAGE(M11,M13,M19,M28)</f>
         <v>0</v>
       </c>
       <c r="N3" s="6">
-        <f>AVERAGE(N16,N24,N30,N39)</f>
+        <f>AVERAGE(N11,N13,N19,N28)</f>
         <v>0</v>
       </c>
       <c r="O3" s="6">
-        <f>AVERAGE(O16,O24,O30,O39)</f>
+        <f>AVERAGE(O11,O13,O19,O28)</f>
         <v>0</v>
       </c>
       <c r="P3" s="6">
-        <f>AVERAGE(P16,P24,P30,P39)</f>
+        <f>AVERAGE(P11,P13,P19,P28)</f>
         <v>0</v>
       </c>
       <c r="Q3" s="6">
-        <f>AVERAGE(Q16,Q24,Q30,Q39)</f>
+        <f>AVERAGE(Q11,Q13,Q19,Q28)</f>
         <v>0</v>
       </c>
       <c r="R3" s="6">
-        <f>AVERAGE(R16,R24,R30,R39)</f>
+        <f>AVERAGE(R11,R13,R19,R28)</f>
         <v>0</v>
       </c>
       <c r="S3" s="6">
-        <f>AVERAGE(S16,S24,S30,S39)</f>
+        <f>AVERAGE(S11,S13,S19,S28)</f>
         <v>0</v>
       </c>
       <c r="T3" s="6">
-        <f>AVERAGE(T16,T24,T30,T39)</f>
+        <f>AVERAGE(T11,T13,T19,T28)</f>
         <v>0</v>
       </c>
     </row>
@@ -4217,49 +4216,49 @@
         <v>2</v>
       </c>
       <c r="F5" s="3">
-        <v>45190</v>
+        <v>45196</v>
       </c>
       <c r="G5" s="3">
-        <v>45191</v>
+        <v>45197</v>
       </c>
       <c r="H5" s="3">
-        <v>45192</v>
+        <v>45198</v>
       </c>
       <c r="I5" s="3">
-        <v>45193</v>
+        <v>45199</v>
       </c>
       <c r="J5" s="3">
-        <v>45194</v>
+        <v>45200</v>
       </c>
       <c r="K5" s="3">
-        <v>45195</v>
+        <v>45201</v>
       </c>
       <c r="L5" s="3">
-        <v>45196</v>
+        <v>45202</v>
       </c>
       <c r="M5" s="3">
-        <v>45197</v>
+        <v>45203</v>
       </c>
       <c r="N5" s="3">
-        <v>45198</v>
+        <v>45204</v>
       </c>
       <c r="O5" s="3">
-        <v>45199</v>
+        <v>45205</v>
       </c>
       <c r="P5" s="3">
-        <v>45200</v>
+        <v>45206</v>
       </c>
       <c r="Q5" s="3">
-        <v>45201</v>
+        <v>45207</v>
       </c>
       <c r="R5" s="3">
-        <v>45202</v>
+        <v>45208</v>
       </c>
       <c r="S5" s="3">
-        <v>45203</v>
+        <v>45209</v>
       </c>
       <c r="T5" s="3">
-        <v>45204</v>
+        <v>45210</v>
       </c>
     </row>
     <row r="6" spans="2:20" ht="16.500000" customHeight="1">
@@ -4274,22 +4273,22 @@
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G6" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H6" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I6" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="J6" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="K6" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="L6" s="9">
         <v>0</v>
@@ -4333,16 +4332,16 @@
         <v>0</v>
       </c>
       <c r="H7" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I7" s="9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J7" s="9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K7" s="9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L7" s="9">
         <v>0</v>
@@ -4386,16 +4385,16 @@
         <v>0</v>
       </c>
       <c r="H8" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I8" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J8" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K8" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="L8" s="9">
         <v>0</v>
@@ -4429,7 +4428,7 @@
       <c r="B9" s="14"/>
       <c r="C9" s="11"/>
       <c r="D9" s="7" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9">
@@ -4481,7 +4480,9 @@
     <row r="10" spans="2:20">
       <c r="B10" s="14"/>
       <c r="C10" s="11"/>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9">
         <v>0</v>
@@ -4530,141 +4531,275 @@
       </c>
     </row>
     <row r="11" spans="2:20">
-      <c r="B11" s="14"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="7"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9">
-        <v>0</v>
-      </c>
-      <c r="L11" s="9">
-        <v>0</v>
-      </c>
-      <c r="M11" s="9">
-        <v>0</v>
-      </c>
-      <c r="N11" s="9">
-        <v>0</v>
-      </c>
-      <c r="O11" s="9">
-        <v>0</v>
-      </c>
-      <c r="P11" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="9">
-        <v>0</v>
-      </c>
-      <c r="R11" s="9">
-        <v>0</v>
-      </c>
-      <c r="S11" s="9">
-        <v>0</v>
-      </c>
-      <c r="T11" s="9">
+      <c r="F11" s="6">
+        <f>AVERAGE(F6:F10)</f>
+        <v>0.02</v>
+      </c>
+      <c r="G11" s="6">
+        <f>AVERAGE(G6:G10)</f>
+        <v>0.1</v>
+      </c>
+      <c r="H11" s="6">
+        <f>AVERAGE(H6:H10)</f>
+        <v>0.26</v>
+      </c>
+      <c r="I11" s="6">
+        <f>AVERAGE(I6:I10)</f>
+        <v>0.32</v>
+      </c>
+      <c r="J11" s="6">
+        <f>AVERAGE(J6:J10)</f>
+        <v>0.32</v>
+      </c>
+      <c r="K11" s="6">
+        <f>AVERAGE(K6:K10)</f>
+        <v>0.36</v>
+      </c>
+      <c r="L11" s="6">
+        <f>AVERAGE(L6:L10)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <f>AVERAGE(M6:M10)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <f>AVERAGE(N6:N10)</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
+        <f>AVERAGE(O6:O10)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
+        <f>AVERAGE(P6:P10)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <f>AVERAGE(Q6:Q10)</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="6">
+        <f>AVERAGE(R6:R10)</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="6">
+        <f>AVERAGE(S6:S10)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="6">
+        <f>AVERAGE(T6:T10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:20">
-      <c r="B12" s="14"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="7"/>
+      <c r="B12" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
+      <c r="F12" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+      <c r="O12" s="9">
+        <v>0</v>
+      </c>
+      <c r="P12" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>0</v>
+      </c>
+      <c r="R12" s="9">
+        <v>0</v>
+      </c>
+      <c r="S12" s="9">
+        <v>0</v>
+      </c>
+      <c r="T12" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="2:20">
-      <c r="B13" s="14"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="7"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
+      <c r="F13" s="6">
+        <f>AVERAGE(F12:F12)</f>
+        <v>0.05</v>
+      </c>
+      <c r="G13" s="6">
+        <f>AVERAGE(G12:G12)</f>
+        <v>0.1</v>
+      </c>
+      <c r="H13" s="6">
+        <f>AVERAGE(H12:H12)</f>
+        <v>0.15</v>
+      </c>
+      <c r="I13" s="6">
+        <f>AVERAGE(I12:I12)</f>
+        <v>0.2</v>
+      </c>
+      <c r="J13" s="6">
+        <f>AVERAGE(J12:J12)</f>
+        <v>0.3</v>
+      </c>
+      <c r="K13" s="6">
+        <f>AVERAGE(K12:K12)</f>
+        <v>0.4</v>
+      </c>
+      <c r="L13" s="6">
+        <f>AVERAGE(L12:L12)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <f>AVERAGE(M12:M12)</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
+        <f>AVERAGE(N12:N12)</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="6">
+        <f>AVERAGE(O12:O12)</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="6">
+        <f>AVERAGE(P12:P12)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
+        <f>AVERAGE(Q12:Q12)</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="6">
+        <f>AVERAGE(R12:R12)</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="6">
+        <f>AVERAGE(S12:S12)</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="6">
+        <f>AVERAGE(T12:T12)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="2:20">
-      <c r="B14" s="14"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="7"/>
+      <c r="B14" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+      <c r="O14" s="9">
+        <v>0</v>
+      </c>
+      <c r="P14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>0</v>
+      </c>
+      <c r="R14" s="9">
+        <v>0</v>
+      </c>
+      <c r="S14" s="9">
+        <v>0</v>
+      </c>
+      <c r="T14" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="2:20">
-      <c r="B15" s="14"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="7"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9">
         <v>0</v>
       </c>
       <c r="G15" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H15" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I15" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J15" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="K15" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="L15" s="9">
         <v>0</v>
@@ -4695,99 +4830,82 @@
       </c>
     </row>
     <row r="16" spans="2:20">
-      <c r="B16" s="15"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="E16" s="7"/>
-      <c r="F16" s="6">
-        <f>AVERAGE(F6:F15)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="6">
-        <f>AVERAGE(G6:G15)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="6">
-        <f>AVERAGE(H6:H15)</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="6">
-        <f>AVERAGE(I6:I15)</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="6">
-        <f>AVERAGE(J6:J15)</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="6">
-        <f>AVERAGE(K6:K15)</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="6">
-        <f>AVERAGE(L6:L15)</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="6">
-        <f>AVERAGE(M6:M15)</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="6">
-        <f>AVERAGE(N6:N15)</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="6">
-        <f>AVERAGE(O6:O15)</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="6">
-        <f>AVERAGE(P6:P15)</f>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="6">
-        <f>AVERAGE(Q6:Q15)</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="6">
-        <f>AVERAGE(R6:R15)</f>
-        <v>0</v>
-      </c>
-      <c r="S16" s="6">
-        <f>AVERAGE(S6:S15)</f>
-        <v>0</v>
-      </c>
-      <c r="T16" s="6">
-        <f>AVERAGE(T6:T15)</f>
+      <c r="F16" s="9">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
+      <c r="O16" s="9">
+        <v>0</v>
+      </c>
+      <c r="P16" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>0</v>
+      </c>
+      <c r="R16" s="9">
+        <v>0</v>
+      </c>
+      <c r="S16" s="9">
+        <v>0</v>
+      </c>
+      <c r="T16" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:20">
-      <c r="B17" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>34</v>
+      <c r="B17" s="22"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="9">
         <v>0</v>
       </c>
       <c r="G17" s="9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H17" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I17" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="J17" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K17" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="L17" s="9">
         <v>0</v>
@@ -4818,29 +4936,29 @@
       </c>
     </row>
     <row r="18" spans="2:20">
-      <c r="B18" s="22"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="17"/>
       <c r="D18" s="7" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="9">
         <v>0</v>
       </c>
       <c r="G18" s="9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H18" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I18" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="J18" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K18" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="L18" s="9">
         <v>0</v>
@@ -4871,60 +4989,81 @@
       </c>
     </row>
     <row r="19" spans="2:20">
-      <c r="B19" s="22"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="9">
-        <v>0</v>
-      </c>
-      <c r="G19" s="9">
-        <v>0</v>
-      </c>
-      <c r="H19" s="9">
-        <v>0</v>
-      </c>
-      <c r="I19" s="9">
-        <v>0</v>
-      </c>
-      <c r="J19" s="9">
-        <v>0</v>
-      </c>
-      <c r="K19" s="9">
-        <v>0</v>
-      </c>
-      <c r="L19" s="9">
-        <v>0</v>
-      </c>
-      <c r="M19" s="9">
-        <v>0</v>
-      </c>
-      <c r="N19" s="9">
-        <v>0</v>
-      </c>
-      <c r="O19" s="9">
-        <v>0</v>
-      </c>
-      <c r="P19" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="9">
-        <v>0</v>
-      </c>
-      <c r="R19" s="9">
-        <v>0</v>
-      </c>
-      <c r="S19" s="9">
-        <v>0</v>
-      </c>
-      <c r="T19" s="9">
+      <c r="F19" s="6">
+        <f>AVERAGE(F18:F18)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <f>AVERAGE(G18:G18)</f>
+        <v>0.4</v>
+      </c>
+      <c r="H19" s="6">
+        <f>AVERAGE(H18:H18)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="6">
+        <f>AVERAGE(I18:I18)</f>
+        <v>0.7</v>
+      </c>
+      <c r="J19" s="6">
+        <f>AVERAGE(J18:J18)</f>
+        <v>0.8</v>
+      </c>
+      <c r="K19" s="6">
+        <f>AVERAGE(K18:K18)</f>
+        <v>0.9</v>
+      </c>
+      <c r="L19" s="6">
+        <f>AVERAGE(L18:L18)</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="6">
+        <f>AVERAGE(M18:M18)</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="6">
+        <f>AVERAGE(N18:N18)</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="6">
+        <f>AVERAGE(O18:O18)</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="6">
+        <f>AVERAGE(P18:P18)</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="6">
+        <f>AVERAGE(Q18:Q18)</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="6">
+        <f>AVERAGE(R18:R18)</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="6">
+        <f>AVERAGE(S18:S18)</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="6">
+        <f>AVERAGE(T18:T18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:20">
-      <c r="B20" s="22"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
+      <c r="B20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="E20" s="7"/>
       <c r="F20" s="9">
         <v>0</v>
@@ -4973,9 +5112,11 @@
       </c>
     </row>
     <row r="21" spans="2:20">
-      <c r="B21" s="22"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
+      <c r="D21" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E21" s="7"/>
       <c r="F21" s="9">
         <v>0</v>
@@ -5024,9 +5165,11 @@
       </c>
     </row>
     <row r="22" spans="2:20">
-      <c r="B22" s="22"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
+      <c r="D22" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="E22" s="7"/>
       <c r="F22" s="9">
         <v>0</v>
@@ -5075,9 +5218,11 @@
       </c>
     </row>
     <row r="23" spans="2:20">
-      <c r="B23" s="22"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
+      <c r="D23" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="E23" s="7"/>
       <c r="F23" s="9">
         <v>0</v>
@@ -5126,80 +5271,63 @@
       </c>
     </row>
     <row r="24" spans="2:20">
-      <c r="B24" s="23"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="E24" s="7"/>
-      <c r="F24" s="6">
-        <f>AVERAGE(F17:F22)</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="6">
-        <f>AVERAGE(G17:G22)</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="6">
-        <f>AVERAGE(H17:H22)</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="6">
-        <f>AVERAGE(I17:I22)</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="6">
-        <f>AVERAGE(J17:J22)</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="6">
-        <f>AVERAGE(K17:K22)</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="6">
-        <f>AVERAGE(L17:L22)</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="6">
-        <f>AVERAGE(M17:M22)</f>
-        <v>0</v>
-      </c>
-      <c r="N24" s="6">
-        <f>AVERAGE(N17:N22)</f>
-        <v>0</v>
-      </c>
-      <c r="O24" s="6">
-        <f>AVERAGE(O17:O22)</f>
-        <v>0</v>
-      </c>
-      <c r="P24" s="6">
-        <f>AVERAGE(P17:P22)</f>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="6">
-        <f>AVERAGE(Q17:Q22)</f>
-        <v>0</v>
-      </c>
-      <c r="R24" s="6">
-        <f>AVERAGE(R17:R22)</f>
-        <v>0</v>
-      </c>
-      <c r="S24" s="6">
-        <f>AVERAGE(S17:S22)</f>
-        <v>0</v>
-      </c>
-      <c r="T24" s="6">
-        <f>AVERAGE(T17:T22)</f>
+      <c r="F24" s="9">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0</v>
+      </c>
+      <c r="J24" s="9">
+        <v>0</v>
+      </c>
+      <c r="K24" s="9">
+        <v>0</v>
+      </c>
+      <c r="L24" s="9">
+        <v>0</v>
+      </c>
+      <c r="M24" s="9">
+        <v>0</v>
+      </c>
+      <c r="N24" s="9">
+        <v>0</v>
+      </c>
+      <c r="O24" s="9">
+        <v>0</v>
+      </c>
+      <c r="P24" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>0</v>
+      </c>
+      <c r="R24" s="9">
+        <v>0</v>
+      </c>
+      <c r="S24" s="9">
+        <v>0</v>
+      </c>
+      <c r="T24" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>20</v>
+      <c r="B25" s="14"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="9">
@@ -5249,10 +5377,10 @@
       </c>
     </row>
     <row r="26" spans="2:20">
-      <c r="B26" s="22"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="17"/>
       <c r="D26" s="7" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="9">
@@ -5302,10 +5430,10 @@
       </c>
     </row>
     <row r="27" spans="2:20">
-      <c r="B27" s="22"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="17"/>
       <c r="D27" s="7" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="9">
@@ -5355,785 +5483,258 @@
       </c>
     </row>
     <row r="28" spans="2:20">
-      <c r="B28" s="22"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="9">
-        <v>0</v>
-      </c>
-      <c r="G28" s="9">
-        <v>0</v>
-      </c>
-      <c r="H28" s="9">
-        <v>0</v>
-      </c>
-      <c r="I28" s="9">
-        <v>0</v>
-      </c>
-      <c r="J28" s="9">
-        <v>0</v>
-      </c>
-      <c r="K28" s="9">
-        <v>0</v>
-      </c>
-      <c r="L28" s="9">
-        <v>0</v>
-      </c>
-      <c r="M28" s="9">
-        <v>0</v>
-      </c>
-      <c r="N28" s="9">
-        <v>0</v>
-      </c>
-      <c r="O28" s="9">
-        <v>0</v>
-      </c>
-      <c r="P28" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="9">
-        <v>0</v>
-      </c>
-      <c r="R28" s="9">
-        <v>0</v>
-      </c>
-      <c r="S28" s="9">
-        <v>0</v>
-      </c>
-      <c r="T28" s="9">
+      <c r="F28" s="6">
+        <f>AVERAGE(F20:F27)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="6">
+        <f>AVERAGE(G20:G27)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="6">
+        <f>AVERAGE(H20:H27)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="6">
+        <f>AVERAGE(I20:I27)</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="6">
+        <f>AVERAGE(J20:J27)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="6">
+        <f>AVERAGE(K20:K27)</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="6">
+        <f>AVERAGE(L20:L27)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="6">
+        <f>AVERAGE(M20:M27)</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="6">
+        <f>AVERAGE(N20:N27)</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="6">
+        <f>AVERAGE(O20:O27)</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="6">
+        <f>AVERAGE(P20:P27)</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="6">
+        <f>AVERAGE(Q20:Q27)</f>
+        <v>0</v>
+      </c>
+      <c r="R28" s="6">
+        <f>AVERAGE(R20:R27)</f>
+        <v>0</v>
+      </c>
+      <c r="S28" s="6">
+        <f>AVERAGE(S20:S27)</f>
+        <v>0</v>
+      </c>
+      <c r="T28" s="6">
+        <f>AVERAGE(T20:T27)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:20">
-      <c r="B29" s="14"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="9">
-        <v>0</v>
-      </c>
-      <c r="G29" s="9">
-        <v>0</v>
-      </c>
-      <c r="H29" s="9">
-        <v>0</v>
-      </c>
-      <c r="I29" s="9">
-        <v>0</v>
-      </c>
-      <c r="J29" s="9">
-        <v>0</v>
-      </c>
-      <c r="K29" s="9">
-        <v>0</v>
-      </c>
-      <c r="L29" s="9">
-        <v>0</v>
-      </c>
-      <c r="M29" s="9">
-        <v>0</v>
-      </c>
-      <c r="N29" s="9">
-        <v>0</v>
-      </c>
-      <c r="O29" s="9">
-        <v>0</v>
-      </c>
-      <c r="P29" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="9">
-        <v>0</v>
-      </c>
-      <c r="R29" s="9">
-        <v>0</v>
-      </c>
-      <c r="S29" s="9">
-        <v>0</v>
-      </c>
-      <c r="T29" s="9">
-        <v>0</v>
-      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
     </row>
     <row r="30" spans="2:20">
-      <c r="B30" s="15"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="6">
-        <f>AVERAGE(F29:F29)</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="6">
-        <f>AVERAGE(G29:G29)</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="6">
-        <f>AVERAGE(H29:H29)</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="6">
-        <f>AVERAGE(I29:I29)</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="6">
-        <f>AVERAGE(J29:J29)</f>
-        <v>0</v>
-      </c>
-      <c r="K30" s="6">
-        <f>AVERAGE(K29:K29)</f>
-        <v>0</v>
-      </c>
-      <c r="L30" s="6">
-        <f>AVERAGE(L29:L29)</f>
-        <v>0</v>
-      </c>
-      <c r="M30" s="6">
-        <f>AVERAGE(M29:M29)</f>
-        <v>0</v>
-      </c>
-      <c r="N30" s="6">
-        <f>AVERAGE(N29:N29)</f>
-        <v>0</v>
-      </c>
-      <c r="O30" s="6">
-        <f>AVERAGE(O29:O29)</f>
-        <v>0</v>
-      </c>
-      <c r="P30" s="6">
-        <f>AVERAGE(P29:P29)</f>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="6">
-        <f>AVERAGE(Q29:Q29)</f>
-        <v>0</v>
-      </c>
-      <c r="R30" s="6">
-        <f>AVERAGE(R29:R29)</f>
-        <v>0</v>
-      </c>
-      <c r="S30" s="6">
-        <f>AVERAGE(S29:S29)</f>
-        <v>0</v>
-      </c>
-      <c r="T30" s="6">
-        <f>AVERAGE(T29:T29)</f>
-        <v>0</v>
-      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
     </row>
     <row r="31" spans="2:20">
-      <c r="B31" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="9">
-        <v>0</v>
-      </c>
-      <c r="G31" s="9">
-        <v>0</v>
-      </c>
-      <c r="H31" s="9">
-        <v>0</v>
-      </c>
-      <c r="I31" s="9">
-        <v>0</v>
-      </c>
-      <c r="J31" s="9">
-        <v>0</v>
-      </c>
-      <c r="K31" s="9">
-        <v>0</v>
-      </c>
-      <c r="L31" s="9">
-        <v>0</v>
-      </c>
-      <c r="M31" s="9">
-        <v>0</v>
-      </c>
-      <c r="N31" s="9">
-        <v>0</v>
-      </c>
-      <c r="O31" s="9">
-        <v>0</v>
-      </c>
-      <c r="P31" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="9">
-        <v>0</v>
-      </c>
-      <c r="R31" s="9">
-        <v>0</v>
-      </c>
-      <c r="S31" s="9">
-        <v>0</v>
-      </c>
-      <c r="T31" s="9">
-        <v>0</v>
-      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
     </row>
     <row r="32" spans="2:20">
-      <c r="B32" s="14"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="9">
-        <v>0</v>
-      </c>
-      <c r="G32" s="9">
-        <v>0</v>
-      </c>
-      <c r="H32" s="9">
-        <v>0</v>
-      </c>
-      <c r="I32" s="9">
-        <v>0</v>
-      </c>
-      <c r="J32" s="9">
-        <v>0</v>
-      </c>
-      <c r="K32" s="9">
-        <v>0</v>
-      </c>
-      <c r="L32" s="9">
-        <v>0</v>
-      </c>
-      <c r="M32" s="9">
-        <v>0</v>
-      </c>
-      <c r="N32" s="9">
-        <v>0</v>
-      </c>
-      <c r="O32" s="9">
-        <v>0</v>
-      </c>
-      <c r="P32" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="9">
-        <v>0</v>
-      </c>
-      <c r="R32" s="9">
-        <v>0</v>
-      </c>
-      <c r="S32" s="9">
-        <v>0</v>
-      </c>
-      <c r="T32" s="9">
-        <v>0</v>
-      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
     </row>
     <row r="33" spans="2:20">
-      <c r="B33" s="14"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="9">
-        <v>0</v>
-      </c>
-      <c r="G33" s="9">
-        <v>0</v>
-      </c>
-      <c r="H33" s="9">
-        <v>0</v>
-      </c>
-      <c r="I33" s="9">
-        <v>0</v>
-      </c>
-      <c r="J33" s="9">
-        <v>0</v>
-      </c>
-      <c r="K33" s="9">
-        <v>0</v>
-      </c>
-      <c r="L33" s="9">
-        <v>0</v>
-      </c>
-      <c r="M33" s="9">
-        <v>0</v>
-      </c>
-      <c r="N33" s="9">
-        <v>0</v>
-      </c>
-      <c r="O33" s="9">
-        <v>0</v>
-      </c>
-      <c r="P33" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="9">
-        <v>0</v>
-      </c>
-      <c r="R33" s="9">
-        <v>0</v>
-      </c>
-      <c r="S33" s="9">
-        <v>0</v>
-      </c>
-      <c r="T33" s="9">
-        <v>0</v>
-      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
     </row>
     <row r="34" spans="2:20">
-      <c r="B34" s="14"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="9">
-        <v>0</v>
-      </c>
-      <c r="G34" s="9">
-        <v>0</v>
-      </c>
-      <c r="H34" s="9">
-        <v>0</v>
-      </c>
-      <c r="I34" s="9">
-        <v>0</v>
-      </c>
-      <c r="J34" s="9">
-        <v>0</v>
-      </c>
-      <c r="K34" s="9">
-        <v>0</v>
-      </c>
-      <c r="L34" s="9">
-        <v>0</v>
-      </c>
-      <c r="M34" s="9">
-        <v>0</v>
-      </c>
-      <c r="N34" s="9">
-        <v>0</v>
-      </c>
-      <c r="O34" s="9">
-        <v>0</v>
-      </c>
-      <c r="P34" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="9">
-        <v>0</v>
-      </c>
-      <c r="R34" s="9">
-        <v>0</v>
-      </c>
-      <c r="S34" s="9">
-        <v>0</v>
-      </c>
-      <c r="T34" s="9">
-        <v>0</v>
-      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
     </row>
     <row r="35" spans="2:20">
-      <c r="B35" s="14"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="9">
-        <v>0</v>
-      </c>
-      <c r="G35" s="9">
-        <v>0</v>
-      </c>
-      <c r="H35" s="9">
-        <v>0</v>
-      </c>
-      <c r="I35" s="9">
-        <v>0</v>
-      </c>
-      <c r="J35" s="9">
-        <v>0</v>
-      </c>
-      <c r="K35" s="9">
-        <v>0</v>
-      </c>
-      <c r="L35" s="9">
-        <v>0</v>
-      </c>
-      <c r="M35" s="9">
-        <v>0</v>
-      </c>
-      <c r="N35" s="9">
-        <v>0</v>
-      </c>
-      <c r="O35" s="9">
-        <v>0</v>
-      </c>
-      <c r="P35" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="9">
-        <v>0</v>
-      </c>
-      <c r="R35" s="9">
-        <v>0</v>
-      </c>
-      <c r="S35" s="9">
-        <v>0</v>
-      </c>
-      <c r="T35" s="9">
-        <v>0</v>
-      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="4"/>
     </row>
     <row r="36" spans="2:20">
-      <c r="B36" s="14"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="9">
-        <v>0</v>
-      </c>
-      <c r="G36" s="9">
-        <v>0</v>
-      </c>
-      <c r="H36" s="9">
-        <v>0</v>
-      </c>
-      <c r="I36" s="9">
-        <v>0</v>
-      </c>
-      <c r="J36" s="9">
-        <v>0</v>
-      </c>
-      <c r="K36" s="9">
-        <v>0</v>
-      </c>
-      <c r="L36" s="9">
-        <v>0</v>
-      </c>
-      <c r="M36" s="9">
-        <v>0</v>
-      </c>
-      <c r="N36" s="9">
-        <v>0</v>
-      </c>
-      <c r="O36" s="9">
-        <v>0</v>
-      </c>
-      <c r="P36" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="9">
-        <v>0</v>
-      </c>
-      <c r="R36" s="9">
-        <v>0</v>
-      </c>
-      <c r="S36" s="9">
-        <v>0</v>
-      </c>
-      <c r="T36" s="9">
-        <v>0</v>
-      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="8"/>
     </row>
     <row r="37" spans="2:20">
-      <c r="B37" s="14"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="9">
-        <v>0</v>
-      </c>
-      <c r="G37" s="9">
-        <v>0</v>
-      </c>
-      <c r="H37" s="9">
-        <v>0</v>
-      </c>
-      <c r="I37" s="9">
-        <v>0</v>
-      </c>
-      <c r="J37" s="9">
-        <v>0</v>
-      </c>
-      <c r="K37" s="9">
-        <v>0</v>
-      </c>
-      <c r="L37" s="9">
-        <v>0</v>
-      </c>
-      <c r="M37" s="9">
-        <v>0</v>
-      </c>
-      <c r="N37" s="9">
-        <v>0</v>
-      </c>
-      <c r="O37" s="9">
-        <v>0</v>
-      </c>
-      <c r="P37" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="9">
-        <v>0</v>
-      </c>
-      <c r="R37" s="9">
-        <v>0</v>
-      </c>
-      <c r="S37" s="9">
-        <v>0</v>
-      </c>
-      <c r="T37" s="9">
-        <v>0</v>
-      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="8"/>
     </row>
     <row r="38" spans="2:20">
-      <c r="B38" s="14"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="9">
-        <v>0</v>
-      </c>
-      <c r="G38" s="9">
-        <v>0</v>
-      </c>
-      <c r="H38" s="9">
-        <v>0</v>
-      </c>
-      <c r="I38" s="9">
-        <v>0</v>
-      </c>
-      <c r="J38" s="9">
-        <v>0</v>
-      </c>
-      <c r="K38" s="9">
-        <v>0</v>
-      </c>
-      <c r="L38" s="9">
-        <v>0</v>
-      </c>
-      <c r="M38" s="9">
-        <v>0</v>
-      </c>
-      <c r="N38" s="9">
-        <v>0</v>
-      </c>
-      <c r="O38" s="9">
-        <v>0</v>
-      </c>
-      <c r="P38" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="9">
-        <v>0</v>
-      </c>
-      <c r="R38" s="9">
-        <v>0</v>
-      </c>
-      <c r="S38" s="9">
-        <v>0</v>
-      </c>
-      <c r="T38" s="9">
-        <v>0</v>
-      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="8"/>
     </row>
     <row r="39" spans="2:20">
-      <c r="B39" s="15"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="6">
-        <f>AVERAGE(F31:F38)</f>
-        <v>0</v>
-      </c>
-      <c r="G39" s="6">
-        <f>AVERAGE(G31:G38)</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="6">
-        <f>AVERAGE(H31:H38)</f>
-        <v>0</v>
-      </c>
-      <c r="I39" s="6">
-        <f>AVERAGE(I31:I38)</f>
-        <v>0</v>
-      </c>
-      <c r="J39" s="6">
-        <f>AVERAGE(J31:J38)</f>
-        <v>0</v>
-      </c>
-      <c r="K39" s="6">
-        <f>AVERAGE(K31:K38)</f>
-        <v>0</v>
-      </c>
-      <c r="L39" s="6">
-        <f>AVERAGE(L31:L38)</f>
-        <v>0</v>
-      </c>
-      <c r="M39" s="6">
-        <f>AVERAGE(M31:M38)</f>
-        <v>0</v>
-      </c>
-      <c r="N39" s="6">
-        <f>AVERAGE(N31:N38)</f>
-        <v>0</v>
-      </c>
-      <c r="O39" s="6">
-        <f>AVERAGE(O31:O38)</f>
-        <v>0</v>
-      </c>
-      <c r="P39" s="6">
-        <f>AVERAGE(P31:P38)</f>
-        <v>0</v>
-      </c>
-      <c r="Q39" s="6">
-        <f>AVERAGE(Q31:Q38)</f>
-        <v>0</v>
-      </c>
-      <c r="R39" s="6">
-        <f>AVERAGE(R31:R38)</f>
-        <v>0</v>
-      </c>
-      <c r="S39" s="6">
-        <f>AVERAGE(S31:S38)</f>
-        <v>0</v>
-      </c>
-      <c r="T39" s="6">
-        <f>AVERAGE(T31:T38)</f>
-        <v>0</v>
-      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="8"/>
     </row>
     <row r="40" spans="2:20">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="8"/>
     </row>
     <row r="41" spans="2:20">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-    </row>
-    <row r="42" spans="2:20">
-      <c r="D42" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="2:20">
-      <c r="D43" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="2:20">
-      <c r="D44" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="2:20">
-      <c r="E45" s="8"/>
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="2:20">
-      <c r="E46" s="8"/>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="2:20">
-      <c r="E47" s="1"/>
-      <c r="F47" s="8"/>
-    </row>
-    <row r="48" spans="2:20">
-      <c r="E48" s="1"/>
-      <c r="F48" s="8"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B6:B16"/>
-    <mergeCell ref="C6:C16"/>
-    <mergeCell ref="B17:B24"/>
-    <mergeCell ref="C17:C24"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="B31:B39"/>
-    <mergeCell ref="C31:C39"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="C20:C28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B17:C17 E17 B18:E22">
-    <cfRule type="cellIs" dxfId="7" priority="271" operator="equal">
+  <conditionalFormatting sqref="B12:C12 E12">
+    <cfRule type="cellIs" dxfId="7" priority="301" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:D37">
-    <cfRule type="cellIs" dxfId="6" priority="151" operator="equal">
+  <conditionalFormatting sqref="B20:D26">
+    <cfRule type="cellIs" dxfId="6" priority="173" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:E29">
-    <cfRule type="cellIs" dxfId="5" priority="168" operator="equal">
+  <conditionalFormatting sqref="B18:E18">
+    <cfRule type="cellIs" dxfId="5" priority="190" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E7">
-    <cfRule type="cellIs" dxfId="2" priority="531" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="569" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F31:F38">
-    <cfRule type="dataBar" priority="533">
+  <conditionalFormatting sqref="F20:F27">
+    <cfRule type="dataBar" priority="571">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6141,13 +5742,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{abebbbf2-defd-dccd-abeb-bbf2defddccd}</x14:id>
+          <x14:id>{5414449d-2117-2332-5414-449d21172332}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32:G38">
-    <cfRule type="dataBar" priority="536">
+  <conditionalFormatting sqref="G21:G27">
+    <cfRule type="dataBar" priority="574">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6155,13 +5756,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2f6f3f76-5a79-5849-2f6f-3f765a795849}</x14:id>
+          <x14:id>{d292c289-a594-a7b6-d292-c289a594a7b6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31:P31 Q31:Q37 R31:S31 T31:T34 H32:P32 R32:S32 H33:P33 R33:S33 H34:P34 R34:S34 H35:P35 R35:T35 H36:P36 R36:T36 H37:P37 R37:T37 H38:T38">
-    <cfRule type="dataBar" priority="568">
+  <conditionalFormatting sqref="H20:P20 Q20:Q26 R20:S20 T20:T23 H21:P21 R21:S21 H22:P22 R22:S22 H23:P23 R23:S23 H24:P24 R24:T24 H25:P25 R25:T25 H26:P26 R26:T26 H27:T27">
+    <cfRule type="dataBar" priority="606">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6169,13 +5770,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4727571e-3213-3b21-4727-571e32133b21}</x14:id>
+          <x14:id>{5c1c4c05-2918-2b3a-5c1c-4c0529182b3a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25:T29 I29:T29">
-    <cfRule type="dataBar" priority="572">
+  <conditionalFormatting sqref="G14:T18 I18:T18">
+    <cfRule type="dataBar" priority="610">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6183,26 +5784,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c383d39a-b697-b4a5-c383-d39ab697b4a5}</x14:id>
+          <x14:id>{d898c881-ad9c-afbe-d898-c881ad9cafbe}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25:T29">
-    <cfRule type="dataBar" priority="15">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4fbf5f16-3a1b-3829-4fbf-5f163a1b3829}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25:T29">
+  <conditionalFormatting sqref="F14:T18">
     <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
@@ -6211,13 +5798,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cb8bdb92-be9f-bcad-cb8b-db92be9fbcad}</x14:id>
+          <x14:id>{4434541d-31e1-3322-4434-541d31e13322}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:G7 Q6:S12 F8:P8 T8 F9:P9 T9 F10:P10 T10 F11:P11 T11 Q13:S14 F15:R15 T15">
-    <cfRule type="dataBar" priority="522">
+  <conditionalFormatting sqref="F14:T18">
+    <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6225,13 +5812,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5717478e-22d2-2a31-5717-478e22d22a31}</x14:id>
+          <x14:id>{c383d399-b585-b7a6-c383-d399b585b7a6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:P6 Q6:S12 T6 H7:P7 T7 Q13:S15">
-    <cfRule type="dataBar" priority="524">
+  <conditionalFormatting sqref="F6:G7 Q6:S10 F8:P8 T8 F9:P9 T9 F10:P10 T10">
+    <cfRule type="dataBar" priority="552">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6239,12 +5826,26 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d393c38a-a686-a4b5-d393-c38aa686a4b5}</x14:id>
+          <x14:id>{4cac5c15-3979-3b2a-4cac-5c1539793b2a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31:Q31">
+  <conditionalFormatting sqref="H6:P6 Q6:S10 T6 H7:P7 T7">
+    <cfRule type="dataBar" priority="554">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{c888d891-bd8d-bfae-c888-d891bd8dbfae}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:Q20">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -6253,18 +5854,18 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5f1f4f16-2a4a-2839-5f1f-4f162a4a2839}</x14:id>
+          <x14:id>{7434642d-1132-e312-7434-642d1132e312}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B10 E9:E10">
-    <cfRule type="cellIs" dxfId="1" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="229" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:G15">
-    <cfRule type="dataBar" priority="420">
+  <conditionalFormatting sqref="G9:G10">
+    <cfRule type="dataBar" priority="438">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6272,13 +5873,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{db9bcb82-ae8e-acbd-db9b-cb82ae8eacbd}</x14:id>
+          <x14:id>{f4b4e4a9-85b6-8796-f4b4-e4a985b68796}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q6:S12 H9:P9 T9 H10:P10 T10 H11:P11 T11 Q13:S14 H15:R15 T15">
-    <cfRule type="dataBar" priority="473">
+  <conditionalFormatting sqref="Q6:S10 H9:P9 T9 H10:P10 T10">
+    <cfRule type="dataBar" priority="495">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6286,12 +5887,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6727773e-1231-1dc1-6727-773e12311dc1}</x14:id>
+          <x14:id>{a2e2b2f9-d5d4-d7c6-a2e2-b2f9d5d4d7c6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17:Q18 R17:T22">
+  <conditionalFormatting sqref="F12:Q12 R12:T12">
     <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
@@ -6300,13 +5901,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e3a3f3ba-96b5-9485-e3a3-f3ba96b59485}</x14:id>
+          <x14:id>{2464347d-5153-5342-2464-347d51535342}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17:Q18 R17:T19 F19:G22 R20:T22">
-    <cfRule type="dataBar" priority="472">
+  <conditionalFormatting sqref="F12:Q12 R12:T12">
+    <cfRule type="dataBar" priority="488">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6314,13 +5915,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{11514148-6455-6677-1151-414864556677}</x14:id>
+          <x14:id>{a8e8b8f1-dddc-dfce-a8e8-b8f1dddcdfce}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17:Q18 H17:P17 Q17:T19 S17:T17 H18:P18 S18:T18 H19:P19 S19:T19 H20:P20 Q20:T22 S20:T20 H21:P21 S21:T21 H22:P22 S22:T22">
-    <cfRule type="dataBar" priority="475">
+  <conditionalFormatting sqref="G12:Q12 H12:P12 Q12:T12 S12:T12">
+    <cfRule type="dataBar" priority="491">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6328,47 +5929,37 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{95d585cc-e3d1-e2f3-95d5-85cce3d1e2f3}</x14:id>
+          <x14:id>{2c6c3c75-5958-5b4a-2c6c-3c7559585b4a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D15">
-    <cfRule type="cellIs" dxfId="6" priority="136" operator="equal">
+  <conditionalFormatting sqref="D6:D10">
+    <cfRule type="cellIs" dxfId="6" priority="144" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="3" priority="137" operator="equal">
+  <conditionalFormatting sqref="D14">
+    <cfRule type="cellIs" dxfId="5" priority="152" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="3" priority="133" operator="equal">
+  <conditionalFormatting sqref="D15:D18">
+    <cfRule type="cellIs" dxfId="0" priority="109" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" dxfId="5" priority="146" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D29">
-    <cfRule type="cellIs" dxfId="0" priority="107" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
+  <conditionalFormatting sqref="D27">
     <cfRule type="cellIs" dxfId="0" priority="105" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32:D36">
-    <cfRule type="cellIs" dxfId="7" priority="235" operator="equal">
+  <conditionalFormatting sqref="D21:D25">
+    <cfRule type="cellIs" dxfId="7" priority="237" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D26">
     <cfRule type="cellIs" dxfId="3" priority="127" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -6380,7 +5971,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{abebbbf2-defd-dccd-abeb-bbf2defddccd}">
+          <x14:cfRule type="dataBar" id="{5414449d-2117-2332-5414-449d21172332}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6390,7 +5981,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2f6f3f76-5a79-5849-2f6f-3f765a795849}">
+          <x14:cfRule type="dataBar" id="{d292c289-a594-a7b6-d292-c289a594a7b6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6400,7 +5991,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4727571e-3213-3b21-4727-571e32133b21}">
+          <x14:cfRule type="dataBar" id="{5c1c4c05-2918-2b3a-5c1c-4c0529182b3a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6410,7 +6001,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c383d39a-b697-b4a5-c383-d39ab697b4a5}">
+          <x14:cfRule type="dataBar" id="{d898c881-ad9c-afbe-d898-c881ad9cafbe}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6420,7 +6011,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4fbf5f16-3a1b-3829-4fbf-5f163a1b3829}">
+          <x14:cfRule type="dataBar" id="{4434541d-31e1-3322-4434-541d31e13322}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6430,7 +6021,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cb8bdb92-be9f-bcad-cb8b-db92be9fbcad}">
+          <x14:cfRule type="dataBar" id="{c383d399-b585-b7a6-c383-d399b585b7a6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6440,7 +6031,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5717478e-22d2-2a31-5717-478e22d22a31}">
+          <x14:cfRule type="dataBar" id="{4cac5c15-3979-3b2a-4cac-5c1539793b2a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6450,7 +6041,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d393c38a-a686-a4b5-d393-c38aa686a4b5}">
+          <x14:cfRule type="dataBar" id="{c888d891-bd8d-bfae-c888-d891bd8dbfae}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6460,7 +6051,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5f1f4f16-2a4a-2839-5f1f-4f162a4a2839}">
+          <x14:cfRule type="dataBar" id="{7434642d-1132-e312-7434-642d1132e312}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6470,7 +6061,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{db9bcb82-ae8e-acbd-db9b-cb82ae8eacbd}">
+          <x14:cfRule type="dataBar" id="{f4b4e4a9-85b6-8796-f4b4-e4a985b68796}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6480,7 +6071,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6727773e-1231-1dc1-6727-773e12311dc1}">
+          <x14:cfRule type="dataBar" id="{a2e2b2f9-d5d4-d7c6-a2e2-b2f9d5d4d7c6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6490,7 +6081,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e3a3f3ba-96b5-9485-e3a3-f3ba96b59485}">
+          <x14:cfRule type="dataBar" id="{2464347d-5153-5342-2464-347d51535342}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6500,7 +6091,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{11514148-6455-6677-1151-414864556677}">
+          <x14:cfRule type="dataBar" id="{a8e8b8f1-dddc-dfce-a8e8-b8f1dddcdfce}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6510,7 +6101,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{95d585cc-e3d1-e2f3-95d5-85cce3d1e2f3}">
+          <x14:cfRule type="dataBar" id="{2c6c3c75-5958-5b4a-2c6c-3c7559585b4a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/3팀보고.xlsx
+++ b/3팀보고.xlsx
@@ -3652,7 +3652,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3474246d-4141-4352-3474-246d41414352}</x14:id>
+          <x14:id>{5919494b-2c1d-2e3f-5919-494b2c1d2e3f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3666,7 +3666,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b8f8a8e1-cdcd-cfde-b8f8-a8e1cdcdcfde}</x14:id>
+          <x14:id>{d595c58c-af91-a2b3-d595-c58caf91a2b3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3680,7 +3680,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3c7c2c65-4949-4b5a-3c7c-2c6549494b5a}</x14:id>
+          <x14:id>{511141d8-2415-2637-5111-41d824152637}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3694,7 +3694,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{84c494d9-f5f6-f7e6-84c4-94d9f5f6f7e6}</x14:id>
+          <x14:id>{cd8ddd94-b888-baab-cd8d-dd94b888baab}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3708,7 +3708,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d444145d-7172-7362-d444-145d71727362}</x14:id>
+          <x14:id>{49e9591a-3cbc-3e2f-49e9-591a3cbc3e2f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3722,7 +3722,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6c2c7c35-1918-1b3a-6c2c-7c3519181b3a}</x14:id>
+          <x14:id>{c585d59c-be87-b2a3-c585-d59cbe87b2a3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3736,7 +3736,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e8a8f8b1-9d9c-9f8e-e8a8-f8b19d9c9f8e}</x14:id>
+          <x14:id>{41715118-3424-3627-4171-511834243627}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3750,7 +3750,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6424743d-1113-13a2-6424-743d111313a2}</x14:id>
+          <x14:id>{fdbdeda4-88bb-8a9b-fdbd-eda488bb8a9b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3764,7 +3764,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{eeaefeb9-9594-9786-eeae-feb995949786}</x14:id>
+          <x14:id>{7939692d-cc3f-3e1f-7939-692dcc3f3e1f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3778,7 +3778,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7c3c6c25-f9a9-0b1a-7c3c-6c25f9a90b1a}</x14:id>
+          <x14:id>{98d888c1-eddc-effe-98d8-88c1eddceffe}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3792,7 +3792,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f8b8e8a1-8d8d-8f9e-f8b8-e8a18d8d8f9e}</x14:id>
+          <x14:id>{1c5c9c45-6958-6b7a-1c5c-9c4569586b7a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3806,7 +3806,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7434642d-6131-9312-7434-642d61319312}</x14:id>
+          <x14:id>{9ede8ec9-e5d4-e7f6-9ede-8ec9e5d4e7f6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3830,7 +3830,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ffbfefa9-8585-8796-ffbf-efa985858796}</x14:id>
+          <x14:id>{1454044d-6157-6372-1454-044d61576372}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3844,7 +3844,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4cdc5c15-393a-3b2a-4cdc-5c15393a3b2a}</x14:id>
+          <x14:id>{88c898d1-fdcd-ffee-88c8-98d1fdcdffee}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3858,7 +3858,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c888d891-bdbe-bfae-c888-d891bdbebfae}</x14:id>
+          <x14:id>{3c4c1c55-7949-7b6a-3c4c-1c5579497b6a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3872,7 +3872,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{aaeabaf3-dffe-fccd-aaea-baf3dffefccd}</x14:id>
+          <x14:id>{8fcf9fd9-f5c5-f7e6-8fcf-9fd9f5c5f7e6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3886,7 +3886,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2e6e3e77-5b7a-7849-2e6e-3e775b7a7849}</x14:id>
+          <x14:id>{a444145d-7141-7362-a444-145d71417362}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3898,7 +3898,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3474246d-4141-4352-3474-246d41414352}">
+          <x14:cfRule type="dataBar" id="{5919494b-2c1d-2e3f-5919-494b2c1d2e3f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3908,7 +3908,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b8f8a8e1-cdcd-cfde-b8f8-a8e1cdcdcfde}">
+          <x14:cfRule type="dataBar" id="{d595c58c-af91-a2b3-d595-c58caf91a2b3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3918,7 +3918,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3c7c2c65-4949-4b5a-3c7c-2c6549494b5a}">
+          <x14:cfRule type="dataBar" id="{511141d8-2415-2637-5111-41d824152637}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3928,7 +3928,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{84c494d9-f5f6-f7e6-84c4-94d9f5f6f7e6}">
+          <x14:cfRule type="dataBar" id="{cd8ddd94-b888-baab-cd8d-dd94b888baab}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3938,7 +3938,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d444145d-7172-7362-d444-145d71727362}">
+          <x14:cfRule type="dataBar" id="{49e9591a-3cbc-3e2f-49e9-591a3cbc3e2f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3948,7 +3948,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6c2c7c35-1918-1b3a-6c2c-7c3519181b3a}">
+          <x14:cfRule type="dataBar" id="{c585d59c-be87-b2a3-c585-d59cbe87b2a3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3958,7 +3958,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e8a8f8b1-9d9c-9f8e-e8a8-f8b19d9c9f8e}">
+          <x14:cfRule type="dataBar" id="{41715118-3424-3627-4171-511834243627}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3968,7 +3968,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6424743d-1113-13a2-6424-743d111313a2}">
+          <x14:cfRule type="dataBar" id="{fdbdeda4-88bb-8a9b-fdbd-eda488bb8a9b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3978,7 +3978,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{eeaefeb9-9594-9786-eeae-feb995949786}">
+          <x14:cfRule type="dataBar" id="{7939692d-cc3f-3e1f-7939-692dcc3f3e1f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3988,7 +3988,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7c3c6c25-f9a9-0b1a-7c3c-6c25f9a90b1a}">
+          <x14:cfRule type="dataBar" id="{98d888c1-eddc-effe-98d8-88c1eddceffe}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3998,7 +3998,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f8b8e8a1-8d8d-8f9e-f8b8-e8a18d8d8f9e}">
+          <x14:cfRule type="dataBar" id="{1c5c9c45-6958-6b7a-1c5c-9c4569586b7a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4008,7 +4008,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7434642d-6131-9312-7434-642d61319312}">
+          <x14:cfRule type="dataBar" id="{9ede8ec9-e5d4-e7f6-9ede-8ec9e5d4e7f6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4018,7 +4018,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ffbfefa9-8585-8796-ffbf-efa985858796}">
+          <x14:cfRule type="dataBar" id="{1454044d-6157-6372-1454-044d61576372}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4028,7 +4028,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4cdc5c15-393a-3b2a-4cdc-5c15393a3b2a}">
+          <x14:cfRule type="dataBar" id="{88c898d1-fdcd-ffee-88c8-98d1fdcdffee}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4038,7 +4038,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c888d891-bdbe-bfae-c888-d891bdbebfae}">
+          <x14:cfRule type="dataBar" id="{3c4c1c55-7949-7b6a-3c4c-1c5579497b6a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4048,7 +4048,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{aaeabaf3-dffe-fccd-aaea-baf3dffefccd}">
+          <x14:cfRule type="dataBar" id="{8fcf9fd9-f5c5-f7e6-8fcf-9fd9f5c5f7e6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4058,7 +4058,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2e6e3e77-5b7a-7849-2e6e-3e775b7a7849}">
+          <x14:cfRule type="dataBar" id="{a444145d-7141-7362-a444-145d71417362}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4075,10 +4075,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:T41"/>
+  <dimension ref="B1:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
@@ -4151,39 +4151,39 @@
       </c>
       <c r="G3" s="6">
         <f>AVERAGE(G11,G13,G19,G28)</f>
-        <v>0.15</v>
+        <v>0.095</v>
       </c>
       <c r="H3" s="6">
         <f>AVERAGE(H11,H13,H19,H28)</f>
-        <v>0.2275</v>
+        <v>0.1725</v>
       </c>
       <c r="I3" s="6">
         <f>AVERAGE(I11,I13,I19,I28)</f>
-        <v>0.305</v>
+        <v>0.25</v>
       </c>
       <c r="J3" s="6">
         <f>AVERAGE(J11,J13,J19,J28)</f>
-        <v>0.355</v>
+        <v>0.305</v>
       </c>
       <c r="K3" s="6">
         <f>AVERAGE(K11,K13,K19,K28)</f>
-        <v>0.415</v>
+        <v>0.36</v>
       </c>
       <c r="L3" s="6">
         <f>AVERAGE(L11,L13,L19,L28)</f>
-        <v>0</v>
+        <v>0.4325</v>
       </c>
       <c r="M3" s="6">
         <f>AVERAGE(M11,M13,M19,M28)</f>
-        <v>0</v>
+        <v>0.4825</v>
       </c>
       <c r="N3" s="6">
         <f>AVERAGE(N11,N13,N19,N28)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O3" s="6">
         <f>AVERAGE(O11,O13,O19,O28)</f>
-        <v>0</v>
+        <v>0.515</v>
       </c>
       <c r="P3" s="6">
         <f>AVERAGE(P11,P13,P19,P28)</f>
@@ -4291,16 +4291,16 @@
         <v>0.7</v>
       </c>
       <c r="L6" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="M6" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="N6" s="9">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="O6" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="P6" s="9">
         <v>0</v>
@@ -4344,16 +4344,16 @@
         <v>0.4</v>
       </c>
       <c r="L7" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="M7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="9">
         <v>0</v>
@@ -4397,16 +4397,16 @@
         <v>0.7</v>
       </c>
       <c r="L8" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M8" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="N8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="9">
         <v>0</v>
@@ -4450,16 +4450,16 @@
         <v>0</v>
       </c>
       <c r="L9" s="9">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="M9" s="9">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="N9" s="9">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="O9" s="9">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="P9" s="9">
         <v>0</v>
@@ -4561,19 +4561,19 @@
       </c>
       <c r="L11" s="6">
         <f>AVERAGE(L6:L10)</f>
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="M11" s="6">
         <f>AVERAGE(M6:M10)</f>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="N11" s="6">
         <f>AVERAGE(N6:N10)</f>
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="O11" s="6">
         <f>AVERAGE(O6:O10)</f>
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="P11" s="6">
         <f>AVERAGE(P6:P10)</f>
@@ -4626,16 +4626,16 @@
         <v>0.4</v>
       </c>
       <c r="L12" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M12" s="9">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="N12" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="O12" s="9">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="P12" s="9">
         <v>0</v>
@@ -4684,19 +4684,19 @@
       </c>
       <c r="L13" s="6">
         <f>AVERAGE(L12:L12)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M13" s="6">
         <f>AVERAGE(M12:M12)</f>
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="N13" s="6">
         <f>AVERAGE(N12:N12)</f>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="O13" s="6">
         <f>AVERAGE(O12:O12)</f>
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="P13" s="6">
         <f>AVERAGE(P12:P12)</f>
@@ -4802,16 +4802,16 @@
         <v>0.7</v>
       </c>
       <c r="L15" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="M15" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="9">
         <v>0</v>
@@ -4855,16 +4855,16 @@
         <v>0.9</v>
       </c>
       <c r="L16" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="M16" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="N16" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="O16" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="P16" s="9">
         <v>0</v>
@@ -4908,16 +4908,16 @@
         <v>0.9</v>
       </c>
       <c r="L17" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="M17" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" s="9">
         <v>0</v>
@@ -4961,16 +4961,16 @@
         <v>0.9</v>
       </c>
       <c r="L18" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="M18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="9">
         <v>0</v>
@@ -4994,63 +4994,63 @@
       <c r="D19" s="26"/>
       <c r="E19" s="7"/>
       <c r="F19" s="6">
-        <f>AVERAGE(F18:F18)</f>
+        <f>AVERAGE(F14:F18)</f>
         <v>0</v>
       </c>
       <c r="G19" s="6">
-        <f>AVERAGE(G18:G18)</f>
-        <v>0.4</v>
+        <f>AVERAGE(G14:G18)</f>
+        <v>0.18</v>
       </c>
       <c r="H19" s="6">
-        <f>AVERAGE(H18:H18)</f>
-        <v>0.5</v>
+        <f>AVERAGE(H14:H18)</f>
+        <v>0.28</v>
       </c>
       <c r="I19" s="6">
-        <f>AVERAGE(I18:I18)</f>
-        <v>0.7</v>
+        <f>AVERAGE(I14:I18)</f>
+        <v>0.48</v>
       </c>
       <c r="J19" s="6">
-        <f>AVERAGE(J18:J18)</f>
-        <v>0.8</v>
+        <f>AVERAGE(J14:J18)</f>
+        <v>0.6</v>
       </c>
       <c r="K19" s="6">
-        <f>AVERAGE(K18:K18)</f>
-        <v>0.9</v>
+        <f>AVERAGE(K14:K18)</f>
+        <v>0.68</v>
       </c>
       <c r="L19" s="6">
-        <f>AVERAGE(L18:L18)</f>
-        <v>0</v>
+        <f>AVERAGE(L14:L18)</f>
+        <v>0.68</v>
       </c>
       <c r="M19" s="6">
-        <f>AVERAGE(M18:M18)</f>
-        <v>0</v>
+        <f>AVERAGE(M14:M18)</f>
+        <v>0.78</v>
       </c>
       <c r="N19" s="6">
-        <f>AVERAGE(N18:N18)</f>
-        <v>0</v>
+        <f>AVERAGE(N14:N18)</f>
+        <v>0.78</v>
       </c>
       <c r="O19" s="6">
-        <f>AVERAGE(O18:O18)</f>
-        <v>0</v>
+        <f>AVERAGE(O14:O18)</f>
+        <v>0.78</v>
       </c>
       <c r="P19" s="6">
-        <f>AVERAGE(P18:P18)</f>
+        <f>AVERAGE(P14:P18)</f>
         <v>0</v>
       </c>
       <c r="Q19" s="6">
-        <f>AVERAGE(Q18:Q18)</f>
+        <f>AVERAGE(Q14:Q18)</f>
         <v>0</v>
       </c>
       <c r="R19" s="6">
-        <f>AVERAGE(R18:R18)</f>
+        <f>AVERAGE(R14:R18)</f>
         <v>0</v>
       </c>
       <c r="S19" s="6">
-        <f>AVERAGE(S18:S18)</f>
+        <f>AVERAGE(S14:S18)</f>
         <v>0</v>
       </c>
       <c r="T19" s="6">
-        <f>AVERAGE(T18:T18)</f>
+        <f>AVERAGE(T14:T18)</f>
         <v>0</v>
       </c>
     </row>
@@ -5549,157 +5549,32 @@
       </c>
     </row>
     <row r="29" spans="2:20">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
       <c r="E29" s="8"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
     </row>
     <row r="30" spans="2:20">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
       <c r="E30" s="8"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
     </row>
     <row r="31" spans="2:20">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
       <c r="E31" s="8"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
     </row>
     <row r="32" spans="2:20">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
       <c r="E32" s="8"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-    </row>
-    <row r="33" spans="2:20">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+    </row>
+    <row r="33" spans="5:6">
       <c r="E33" s="8"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-    </row>
-    <row r="34" spans="2:20">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+    </row>
+    <row r="34" spans="5:6">
       <c r="E34" s="8"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-    </row>
-    <row r="35" spans="2:20">
+    </row>
+    <row r="35" spans="5:6">
       <c r="E35" s="8"/>
       <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="2:20">
-      <c r="E36" s="1"/>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="2:20">
-      <c r="E37" s="1"/>
-      <c r="F37" s="8"/>
-    </row>
-    <row r="38" spans="2:20">
-      <c r="E38" s="1"/>
-      <c r="F38" s="8"/>
-    </row>
-    <row r="39" spans="2:20">
-      <c r="E39" s="1"/>
-      <c r="F39" s="8"/>
-    </row>
-    <row r="40" spans="2:20">
-      <c r="E40" s="1"/>
-      <c r="F40" s="8"/>
-    </row>
-    <row r="41" spans="2:20">
-      <c r="E41" s="1"/>
-      <c r="F41" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5742,7 +5617,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5414449d-2117-2332-5414-449d21172332}</x14:id>
+          <x14:id>{1959d947-6c5d-6e7f-1959-d9476c5d6e7f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5756,7 +5631,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d292c289-a594-a7b6-d292-c289a594a7b6}</x14:id>
+          <x14:id>{9ddd8dc4-e8d9-eafb-9ddd-8dc4e8d9eafb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5770,12 +5645,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5c1c4c05-2918-2b3a-5c1c-4c0529182b3a}</x14:id>
+          <x14:id>{e1411158-7444-7667-e141-115874447667}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:T18 I18:T18">
+  <conditionalFormatting sqref="G14:K14 M14:T14 G15:K15 M15:O18 O15:T15 G16:K16 M16 O16:T16 G17:K17 M17 O17:T17 G18:K18 M18 O18:T18 I18:K18 M18 O18:T18 L14:P14 M15 O15:P15 M16 O16:P16 M17 O17:P17 M18 O18:P18 L15:L18">
     <cfRule type="dataBar" priority="610">
       <dataBar>
         <cfvo type="min"/>
@@ -5784,12 +5659,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d898c881-ad9c-afbe-d898-c881ad9cafbe}</x14:id>
+          <x14:id>{85c595dc-f2c7-f2e3-85c5-95dcf2c7f2e3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:T18">
+  <conditionalFormatting sqref="F14:K14 M14:T14 F15:K15 M15:O18 O15:T15 F16:K16 M16 O16:T16 F17:K17 M17 O17:T17 F18:K18 M18 O18:T18 L14:P14 M15 O15:P15 M16 O16:P16 M17 O17:P17 M18 O18:P18 L15:L18">
     <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
@@ -5798,12 +5673,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4434541d-31e1-3322-4434-541d31e13322}</x14:id>
+          <x14:id>{79491956-7c4c-7e6f-7949-19567c4c7e6f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:T18">
+  <conditionalFormatting sqref="F14:K14 M14:T14 F15:K15 M15:O18 O15:T15 F16:K16 M16 O16:T16 F17:K17 M17 O17:T17 F18:K18 M18 O18:T18 L14:P14 M15 O15:P15 M16 O16:P16 M17 O17:P17 M18 O18:P18 L15:L18">
     <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="min"/>
@@ -5812,7 +5687,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c383d399-b585-b7a6-c383-d399b585b7a6}</x14:id>
+          <x14:id>{8dcd9dd4-f8c8-faeb-8dcd-9dd4f8c8faeb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5826,7 +5701,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4cac5c15-3979-3b2a-4cac-5c1539793b2a}</x14:id>
+          <x14:id>{31712168-4477-4657-3171-216844774657}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5840,7 +5715,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c888d891-bd8d-bfae-c888-d891bd8dbfae}</x14:id>
+          <x14:id>{b5f5a5ec-c5f3-c2d3-b5f5-a5ecc5f3c2d3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5854,7 +5729,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7434642d-1132-e312-7434-642d1132e312}</x14:id>
+          <x14:id>{dd9dcd84-a899-aabb-dd9d-cd84a899aabb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5873,7 +5748,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f4b4e4a9-85b6-8796-f4b4-e4a985b68796}</x14:id>
+          <x14:id>{5919494b-2c1d-2e3f-5919-494b2c1d2e3f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5887,12 +5762,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a2e2b2f9-d5d4-d7c6-a2e2-b2f9d5d4d7c6}</x14:id>
+          <x14:id>{d595c58c-af91-a2b3-d595-c58caf91a2b3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12:Q12 R12:T12">
+  <conditionalFormatting sqref="F12:M12 O12:Q12 R12:T12 N12:O12">
     <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
@@ -5901,12 +5776,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2464347d-5153-5342-2464-347d51535342}</x14:id>
+          <x14:id>{511141d8-2415-2637-5111-41d824152637}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12:Q12 R12:T12">
+  <conditionalFormatting sqref="F12:M12 O12:Q12 R12:T12 N12:O12">
     <cfRule type="dataBar" priority="488">
       <dataBar>
         <cfvo type="min"/>
@@ -5915,12 +5790,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a8e8b8f1-dddc-dfce-a8e8-b8f1dddcdfce}</x14:id>
+          <x14:id>{cd8ddd94-b888-baab-cd8d-dd94b888baab}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12:Q12 H12:P12 Q12:T12 S12:T12">
+  <conditionalFormatting sqref="G12:M12 O12:Q12 H12:M12 O12:P12 Q12:T12 S12:T12 N12:O12">
     <cfRule type="dataBar" priority="491">
       <dataBar>
         <cfvo type="min"/>
@@ -5929,7 +5804,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2c6c3c75-5958-5b4a-2c6c-3c7559585b4a}</x14:id>
+          <x14:id>{49e9591a-3cbc-3e2f-49e9-591a3cbc3e2f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5971,7 +5846,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5414449d-2117-2332-5414-449d21172332}">
+          <x14:cfRule type="dataBar" id="{1959d947-6c5d-6e7f-1959-d9476c5d6e7f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5981,7 +5856,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d292c289-a594-a7b6-d292-c289a594a7b6}">
+          <x14:cfRule type="dataBar" id="{9ddd8dc4-e8d9-eafb-9ddd-8dc4e8d9eafb}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5991,7 +5866,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5c1c4c05-2918-2b3a-5c1c-4c0529182b3a}">
+          <x14:cfRule type="dataBar" id="{e1411158-7444-7667-e141-115874447667}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6001,7 +5876,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d898c881-ad9c-afbe-d898-c881ad9cafbe}">
+          <x14:cfRule type="dataBar" id="{85c595dc-f2c7-f2e3-85c5-95dcf2c7f2e3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6011,7 +5886,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4434541d-31e1-3322-4434-541d31e13322}">
+          <x14:cfRule type="dataBar" id="{79491956-7c4c-7e6f-7949-19567c4c7e6f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6021,7 +5896,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c383d399-b585-b7a6-c383-d399b585b7a6}">
+          <x14:cfRule type="dataBar" id="{8dcd9dd4-f8c8-faeb-8dcd-9dd4f8c8faeb}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6031,7 +5906,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4cac5c15-3979-3b2a-4cac-5c1539793b2a}">
+          <x14:cfRule type="dataBar" id="{31712168-4477-4657-3171-216844774657}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6041,7 +5916,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c888d891-bd8d-bfae-c888-d891bd8dbfae}">
+          <x14:cfRule type="dataBar" id="{b5f5a5ec-c5f3-c2d3-b5f5-a5ecc5f3c2d3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6051,7 +5926,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7434642d-1132-e312-7434-642d1132e312}">
+          <x14:cfRule type="dataBar" id="{dd9dcd84-a899-aabb-dd9d-cd84a899aabb}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6061,7 +5936,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f4b4e4a9-85b6-8796-f4b4-e4a985b68796}">
+          <x14:cfRule type="dataBar" id="{5919494b-2c1d-2e3f-5919-494b2c1d2e3f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6071,7 +5946,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a2e2b2f9-d5d4-d7c6-a2e2-b2f9d5d4d7c6}">
+          <x14:cfRule type="dataBar" id="{d595c58c-af91-a2b3-d595-c58caf91a2b3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6081,7 +5956,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2464347d-5153-5342-2464-347d51535342}">
+          <x14:cfRule type="dataBar" id="{511141d8-2415-2637-5111-41d824152637}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6091,7 +5966,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a8e8b8f1-dddc-dfce-a8e8-b8f1dddcdfce}">
+          <x14:cfRule type="dataBar" id="{cd8ddd94-b888-baab-cd8d-dd94b888baab}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6101,7 +5976,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2c6c3c75-5958-5b4a-2c6c-3c7559585b4a}">
+          <x14:cfRule type="dataBar" id="{49e9591a-3cbc-3e2f-49e9-591a3cbc3e2f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/3팀보고.xlsx
+++ b/3팀보고.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>페이지</t>
   </si>
@@ -199,6 +199,11 @@
     <t>주차 업로드
 회원가입
 로그인</t>
+  </si>
+  <si>
+    <t>김영채
+↓
+조남호</t>
   </si>
 </sst>
 </file>
@@ -863,7 +868,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -959,6 +964,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3652,7 +3660,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5919494b-2c1d-2e3f-5919-494b2c1d2e3f}</x14:id>
+          <x14:id>{a2e2b2fb-d7f6-f4c5-a2e2-b2fbd7f6f4c5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3666,7 +3674,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d595c58c-af91-a2b3-d595-c58caf91a2b3}</x14:id>
+          <x14:id>{2666367f-5372-7341-2666-367f53727341}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3680,7 +3688,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{511141d8-2415-2637-5111-41d824152637}</x14:id>
+          <x14:id>{bafaaae3-cfee-fcdd-bafa-aae3cfeefcdd}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3694,7 +3702,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cd8ddd94-b888-baab-cd8d-dd94b888baab}</x14:id>
+          <x14:id>{3e7e2e67-4b6a-7859-3e7e-2e674b6a7859}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3708,7 +3716,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{49e9591a-3cbc-3e2f-49e9-591a3cbc3e2f}</x14:id>
+          <x14:id>{b2f2a2eb-c7e6-f4d5-b2f2-a2ebc7e6f4d5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3722,7 +3730,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c585d59c-be87-b2a3-c585-d59cbe87b2a3}</x14:id>
+          <x14:id>{3676266f-4362-7251-3676-266f43627251}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3736,7 +3744,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{41715118-3424-3627-4171-511834243627}</x14:id>
+          <x14:id>{8aca9ad3-ffde-fced-8aca-9ad3ffdefced}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3750,7 +3758,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fdbdeda4-88bb-8a9b-fdbd-eda488bb8a9b}</x14:id>
+          <x14:id>{2e4e1e57-7b5a-7869-2e4e-1e577b5a7869}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3764,7 +3772,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7939692d-cc3f-3e1f-7939-692dcc3f3e1f}</x14:id>
+          <x14:id>{6626763f-1332-3fc1-6626-763f13323fc1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3778,7 +3786,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{98d888c1-eddc-effe-98d8-88c1eddceffe}</x14:id>
+          <x14:id>{e2a2f2bb-97b6-b485-e2a2-f2bb97b6b485}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3792,7 +3800,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1c5c9c45-6958-6b7a-1c5c-9c4569586b7a}</x14:id>
+          <x14:id>{6e2e7e37-1b3a-3859-6e2e-7e371b3a3859}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3806,7 +3814,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9ede8ec9-e5d4-e7f6-9ede-8ec9e5d4e7f6}</x14:id>
+          <x14:id>{eaaafab3-9fbe-bc8d-eaaa-fab39fbebc8d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3830,7 +3838,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1454044d-6157-6372-1454-044d61576372}</x14:id>
+          <x14:id>{7636662f-0322-3e11-7636-662f03223e11}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3844,7 +3852,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{88c898d1-fdcd-ffee-88c8-98d1fdcdffee}</x14:id>
+          <x14:id>{f2b2e2ab-87a6-b495-f2b2-e2ab87a6b495}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3858,7 +3866,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3c4c1c55-7949-7b6a-3c4c-1c5579497b6a}</x14:id>
+          <x14:id>{7e3e6e27-9b2a-3819-7e3e-6e279b2a3819}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3872,7 +3880,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8fcf9fd9-f5c5-f7e6-8fcf-9fd9f5c5f7e6}</x14:id>
+          <x14:id>{fabaeaa3-8fae-bc9d-faba-eaa38faebc9d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3886,7 +3894,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a444145d-7141-7362-a444-145d71417362}</x14:id>
+          <x14:id>{4626561f-3312-3921-4626-561f33123921}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3898,7 +3906,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5919494b-2c1d-2e3f-5919-494b2c1d2e3f}">
+          <x14:cfRule type="dataBar" id="{a2e2b2fb-d7f6-f4c5-a2e2-b2fbd7f6f4c5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3908,7 +3916,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d595c58c-af91-a2b3-d595-c58caf91a2b3}">
+          <x14:cfRule type="dataBar" id="{2666367f-5372-7341-2666-367f53727341}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3918,7 +3926,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{511141d8-2415-2637-5111-41d824152637}">
+          <x14:cfRule type="dataBar" id="{bafaaae3-cfee-fcdd-bafa-aae3cfeefcdd}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3928,7 +3936,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cd8ddd94-b888-baab-cd8d-dd94b888baab}">
+          <x14:cfRule type="dataBar" id="{3e7e2e67-4b6a-7859-3e7e-2e674b6a7859}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3938,7 +3946,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{49e9591a-3cbc-3e2f-49e9-591a3cbc3e2f}">
+          <x14:cfRule type="dataBar" id="{b2f2a2eb-c7e6-f4d5-b2f2-a2ebc7e6f4d5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3948,7 +3956,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c585d59c-be87-b2a3-c585-d59cbe87b2a3}">
+          <x14:cfRule type="dataBar" id="{3676266f-4362-7251-3676-266f43627251}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3958,7 +3966,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{41715118-3424-3627-4171-511834243627}">
+          <x14:cfRule type="dataBar" id="{8aca9ad3-ffde-fced-8aca-9ad3ffdefced}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3968,7 +3976,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{fdbdeda4-88bb-8a9b-fdbd-eda488bb8a9b}">
+          <x14:cfRule type="dataBar" id="{2e4e1e57-7b5a-7869-2e4e-1e577b5a7869}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3978,7 +3986,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7939692d-cc3f-3e1f-7939-692dcc3f3e1f}">
+          <x14:cfRule type="dataBar" id="{6626763f-1332-3fc1-6626-763f13323fc1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3988,7 +3996,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{98d888c1-eddc-effe-98d8-88c1eddceffe}">
+          <x14:cfRule type="dataBar" id="{e2a2f2bb-97b6-b485-e2a2-f2bb97b6b485}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3998,7 +4006,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1c5c9c45-6958-6b7a-1c5c-9c4569586b7a}">
+          <x14:cfRule type="dataBar" id="{6e2e7e37-1b3a-3859-6e2e-7e371b3a3859}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4008,7 +4016,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9ede8ec9-e5d4-e7f6-9ede-8ec9e5d4e7f6}">
+          <x14:cfRule type="dataBar" id="{eaaafab3-9fbe-bc8d-eaaa-fab39fbebc8d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4018,7 +4026,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1454044d-6157-6372-1454-044d61576372}">
+          <x14:cfRule type="dataBar" id="{7636662f-0322-3e11-7636-662f03223e11}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4028,7 +4036,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{88c898d1-fdcd-ffee-88c8-98d1fdcdffee}">
+          <x14:cfRule type="dataBar" id="{f2b2e2ab-87a6-b495-f2b2-e2ab87a6b495}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4038,7 +4046,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3c4c1c55-7949-7b6a-3c4c-1c5579497b6a}">
+          <x14:cfRule type="dataBar" id="{7e3e6e27-9b2a-3819-7e3e-6e279b2a3819}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4048,7 +4056,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8fcf9fd9-f5c5-f7e6-8fcf-9fd9f5c5f7e6}">
+          <x14:cfRule type="dataBar" id="{fabaeaa3-8fae-bc9d-faba-eaa38faebc9d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4058,7 +4066,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a444145d-7141-7362-a444-145d71417362}">
+          <x14:cfRule type="dataBar" id="{4626561f-3312-3921-4626-561f33123921}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4078,7 +4086,7 @@
   <dimension ref="B1:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="D21" sqref="D21:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
@@ -4146,63 +4154,63 @@
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <f>AVERAGE(F11,F13,F19,F28)</f>
+        <f>AVERAGE(F11,F13,F20,F27)</f>
         <v>0.0175</v>
       </c>
       <c r="G3" s="6">
-        <f>AVERAGE(G11,G13,G19,G28)</f>
-        <v>0.095</v>
+        <f>AVERAGE(G11,G13,G20,G27)</f>
+        <v>0.0875</v>
       </c>
       <c r="H3" s="6">
-        <f>AVERAGE(H11,H13,H19,H28)</f>
-        <v>0.1725</v>
+        <f>AVERAGE(H11,H13,H20,H27)</f>
+        <v>0.160833333333333</v>
       </c>
       <c r="I3" s="6">
-        <f>AVERAGE(I11,I13,I19,I28)</f>
-        <v>0.25</v>
+        <f>AVERAGE(I11,I13,I20,I27)</f>
+        <v>0.23</v>
       </c>
       <c r="J3" s="6">
-        <f>AVERAGE(J11,J13,J19,J28)</f>
-        <v>0.305</v>
+        <f>AVERAGE(J11,J13,J20,J27)</f>
+        <v>0.28</v>
       </c>
       <c r="K3" s="6">
-        <f>AVERAGE(K11,K13,K19,K28)</f>
-        <v>0.36</v>
+        <f>AVERAGE(K11,K13,K20,K27)</f>
+        <v>0.331666666666667</v>
       </c>
       <c r="L3" s="6">
-        <f>AVERAGE(L11,L13,L19,L28)</f>
-        <v>0.4325</v>
+        <f>AVERAGE(L11,L13,L20,L27)</f>
+        <v>0.404166666666667</v>
       </c>
       <c r="M3" s="6">
-        <f>AVERAGE(M11,M13,M19,M28)</f>
+        <f>AVERAGE(M11,M13,M20,M27)</f>
+        <v>0.45</v>
+      </c>
+      <c r="N3" s="6">
+        <f>AVERAGE(N11,N13,N20,N27)</f>
+        <v>0.4675</v>
+      </c>
+      <c r="O3" s="6">
+        <f>AVERAGE(O11,O13,O20,O27)</f>
         <v>0.4825</v>
       </c>
-      <c r="N3" s="6">
-        <f>AVERAGE(N11,N13,N19,N28)</f>
-        <v>0.5</v>
-      </c>
-      <c r="O3" s="6">
-        <f>AVERAGE(O11,O13,O19,O28)</f>
-        <v>0.515</v>
-      </c>
       <c r="P3" s="6">
-        <f>AVERAGE(P11,P13,P19,P28)</f>
+        <f>AVERAGE(P11,P13,P20,P27)</f>
         <v>0</v>
       </c>
       <c r="Q3" s="6">
-        <f>AVERAGE(Q11,Q13,Q19,Q28)</f>
+        <f>AVERAGE(Q11,Q13,Q20,Q27)</f>
         <v>0</v>
       </c>
       <c r="R3" s="6">
-        <f>AVERAGE(R11,R13,R19,R28)</f>
+        <f>AVERAGE(R11,R13,R20,R27)</f>
         <v>0</v>
       </c>
       <c r="S3" s="6">
-        <f>AVERAGE(S11,S13,S19,S28)</f>
+        <f>AVERAGE(S11,S13,S20,S27)</f>
         <v>0</v>
       </c>
       <c r="T3" s="6">
-        <f>AVERAGE(T11,T13,T19,T28)</f>
+        <f>AVERAGE(T11,T13,T20,T27)</f>
         <v>0</v>
       </c>
     </row>
@@ -4936,186 +4944,186 @@
       </c>
     </row>
     <row r="18" spans="2:20">
-      <c r="B18" s="14"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="17"/>
-      <c r="D18" s="7" t="s">
-        <v>6</v>
+      <c r="D18" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="9">
         <v>0</v>
       </c>
       <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0</v>
+      </c>
+      <c r="O18" s="9">
+        <v>0</v>
+      </c>
+      <c r="P18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>0</v>
+      </c>
+      <c r="R18" s="9">
+        <v>0</v>
+      </c>
+      <c r="S18" s="9">
+        <v>0</v>
+      </c>
+      <c r="T18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20">
+      <c r="B19" s="14"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="9">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9">
         <v>0.4</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H19" s="9">
         <v>0.5</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I19" s="9">
         <v>0.7</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J19" s="9">
         <v>0.8</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K19" s="9">
         <v>0.9</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L19" s="9">
         <v>0.9</v>
       </c>
-      <c r="M18" s="9">
-        <v>1</v>
-      </c>
-      <c r="N18" s="9">
-        <v>1</v>
-      </c>
-      <c r="O18" s="9">
-        <v>1</v>
-      </c>
-      <c r="P18" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="9">
-        <v>0</v>
-      </c>
-      <c r="R18" s="9">
-        <v>0</v>
-      </c>
-      <c r="S18" s="9">
-        <v>0</v>
-      </c>
-      <c r="T18" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20">
-      <c r="B19" s="15"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="6">
-        <f>AVERAGE(F14:F18)</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="6">
-        <f>AVERAGE(G14:G18)</f>
-        <v>0.18</v>
-      </c>
-      <c r="H19" s="6">
-        <f>AVERAGE(H14:H18)</f>
-        <v>0.28</v>
-      </c>
-      <c r="I19" s="6">
-        <f>AVERAGE(I14:I18)</f>
-        <v>0.48</v>
-      </c>
-      <c r="J19" s="6">
-        <f>AVERAGE(J14:J18)</f>
-        <v>0.6</v>
-      </c>
-      <c r="K19" s="6">
-        <f>AVERAGE(K14:K18)</f>
-        <v>0.68</v>
-      </c>
-      <c r="L19" s="6">
-        <f>AVERAGE(L14:L18)</f>
-        <v>0.68</v>
-      </c>
-      <c r="M19" s="6">
-        <f>AVERAGE(M14:M18)</f>
-        <v>0.78</v>
-      </c>
-      <c r="N19" s="6">
-        <f>AVERAGE(N14:N18)</f>
-        <v>0.78</v>
-      </c>
-      <c r="O19" s="6">
-        <f>AVERAGE(O14:O18)</f>
-        <v>0.78</v>
-      </c>
-      <c r="P19" s="6">
-        <f>AVERAGE(P14:P18)</f>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="6">
-        <f>AVERAGE(Q14:Q18)</f>
-        <v>0</v>
-      </c>
-      <c r="R19" s="6">
-        <f>AVERAGE(R14:R18)</f>
-        <v>0</v>
-      </c>
-      <c r="S19" s="6">
-        <f>AVERAGE(S14:S18)</f>
-        <v>0</v>
-      </c>
-      <c r="T19" s="6">
-        <f>AVERAGE(T14:T18)</f>
+      <c r="M19" s="9">
+        <v>1</v>
+      </c>
+      <c r="N19" s="9">
+        <v>1</v>
+      </c>
+      <c r="O19" s="9">
+        <v>1</v>
+      </c>
+      <c r="P19" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>0</v>
+      </c>
+      <c r="R19" s="9">
+        <v>0</v>
+      </c>
+      <c r="S19" s="9">
+        <v>0</v>
+      </c>
+      <c r="T19" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:20">
-      <c r="B20" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="16" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="6">
+        <f>AVERAGE(F14:F19)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <f>AVERAGE(G14:G19)</f>
+        <v>0.15</v>
+      </c>
+      <c r="H20" s="6">
+        <f>AVERAGE(H14:H19)</f>
+        <v>0.233333333333333</v>
+      </c>
+      <c r="I20" s="6">
+        <f>AVERAGE(I14:I19)</f>
+        <v>0.4</v>
+      </c>
+      <c r="J20" s="6">
+        <f>AVERAGE(J14:J19)</f>
+        <v>0.5</v>
+      </c>
+      <c r="K20" s="6">
+        <f>AVERAGE(K14:K19)</f>
+        <v>0.566666666666667</v>
+      </c>
+      <c r="L20" s="6">
+        <f>AVERAGE(L14:L19)</f>
+        <v>0.566666666666667</v>
+      </c>
+      <c r="M20" s="6">
+        <f>AVERAGE(M14:M19)</f>
+        <v>0.65</v>
+      </c>
+      <c r="N20" s="6">
+        <f>AVERAGE(N14:N19)</f>
+        <v>0.65</v>
+      </c>
+      <c r="O20" s="6">
+        <f>AVERAGE(O14:O19)</f>
+        <v>0.65</v>
+      </c>
+      <c r="P20" s="6">
+        <f>AVERAGE(P14:P19)</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="6">
+        <f>AVERAGE(Q14:Q19)</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="6">
+        <f>AVERAGE(R14:R19)</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="6">
+        <f>AVERAGE(S14:S19)</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="6">
+        <f>AVERAGE(T14:T19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20">
+      <c r="B21" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D21" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="9">
-        <v>0</v>
-      </c>
-      <c r="G20" s="9">
-        <v>0</v>
-      </c>
-      <c r="H20" s="9">
-        <v>0</v>
-      </c>
-      <c r="I20" s="9">
-        <v>0</v>
-      </c>
-      <c r="J20" s="9">
-        <v>0</v>
-      </c>
-      <c r="K20" s="9">
-        <v>0</v>
-      </c>
-      <c r="L20" s="9">
-        <v>0</v>
-      </c>
-      <c r="M20" s="9">
-        <v>0</v>
-      </c>
-      <c r="N20" s="9">
-        <v>0</v>
-      </c>
-      <c r="O20" s="9">
-        <v>0</v>
-      </c>
-      <c r="P20" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="9">
-        <v>0</v>
-      </c>
-      <c r="R20" s="9">
-        <v>0</v>
-      </c>
-      <c r="S20" s="9">
-        <v>0</v>
-      </c>
-      <c r="T20" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:20">
-      <c r="B21" s="14"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="9">
@@ -5168,7 +5176,7 @@
       <c r="B22" s="14"/>
       <c r="C22" s="17"/>
       <c r="D22" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="9">
@@ -5273,8 +5281,8 @@
     <row r="24" spans="2:20">
       <c r="B24" s="14"/>
       <c r="C24" s="17"/>
-      <c r="D24" s="10" t="s">
-        <v>18</v>
+      <c r="D24" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="9">
@@ -5327,7 +5335,7 @@
       <c r="B25" s="14"/>
       <c r="C25" s="17"/>
       <c r="D25" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="9">
@@ -5430,123 +5438,91 @@
       </c>
     </row>
     <row r="27" spans="2:20">
-      <c r="B27" s="14"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="9">
-        <v>0</v>
-      </c>
-      <c r="G27" s="9">
-        <v>0</v>
-      </c>
-      <c r="H27" s="9">
-        <v>0</v>
-      </c>
-      <c r="I27" s="9">
-        <v>0</v>
-      </c>
-      <c r="J27" s="9">
-        <v>0</v>
-      </c>
-      <c r="K27" s="9">
-        <v>0</v>
-      </c>
-      <c r="L27" s="9">
-        <v>0</v>
-      </c>
-      <c r="M27" s="9">
-        <v>0</v>
-      </c>
-      <c r="N27" s="9">
-        <v>0</v>
-      </c>
-      <c r="O27" s="9">
-        <v>0</v>
-      </c>
-      <c r="P27" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="9">
-        <v>0</v>
-      </c>
-      <c r="R27" s="9">
-        <v>0</v>
-      </c>
-      <c r="S27" s="9">
-        <v>0</v>
-      </c>
-      <c r="T27" s="9">
+      <c r="F27" s="6">
+        <f>AVERAGE(F21:F26)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <f>AVERAGE(G21:G26)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="6">
+        <f>AVERAGE(H21:H26)</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="6">
+        <f>AVERAGE(I21:I26)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="6">
+        <f>AVERAGE(J21:J26)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="6">
+        <f>AVERAGE(K21:K26)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="6">
+        <f>AVERAGE(L21:L26)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="6">
+        <f>AVERAGE(M21:M26)</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="6">
+        <f>AVERAGE(N21:N26)</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="6">
+        <f>AVERAGE(O21:O26)</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="6">
+        <f>AVERAGE(P21:P26)</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="6">
+        <f>AVERAGE(Q21:Q26)</f>
+        <v>0</v>
+      </c>
+      <c r="R27" s="6">
+        <f>AVERAGE(R21:R26)</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="6">
+        <f>AVERAGE(S21:S26)</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="6">
+        <f>AVERAGE(T21:T26)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:20">
-      <c r="B28" s="15"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="6">
-        <f>AVERAGE(F20:F27)</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="6">
-        <f>AVERAGE(G20:G27)</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="6">
-        <f>AVERAGE(H20:H27)</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="6">
-        <f>AVERAGE(I20:I27)</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="6">
-        <f>AVERAGE(J20:J27)</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="6">
-        <f>AVERAGE(K20:K27)</f>
-        <v>0</v>
-      </c>
-      <c r="L28" s="6">
-        <f>AVERAGE(L20:L27)</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="6">
-        <f>AVERAGE(M20:M27)</f>
-        <v>0</v>
-      </c>
-      <c r="N28" s="6">
-        <f>AVERAGE(N20:N27)</f>
-        <v>0</v>
-      </c>
-      <c r="O28" s="6">
-        <f>AVERAGE(O20:O27)</f>
-        <v>0</v>
-      </c>
-      <c r="P28" s="6">
-        <f>AVERAGE(P20:P27)</f>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="6">
-        <f>AVERAGE(Q20:Q27)</f>
-        <v>0</v>
-      </c>
-      <c r="R28" s="6">
-        <f>AVERAGE(R20:R27)</f>
-        <v>0</v>
-      </c>
-      <c r="S28" s="6">
-        <f>AVERAGE(S20:S27)</f>
-        <v>0</v>
-      </c>
-      <c r="T28" s="6">
-        <f>AVERAGE(T20:T27)</f>
-        <v>0</v>
-      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
     </row>
     <row r="29" spans="2:20">
       <c r="E29" s="8"/>
@@ -5573,8 +5549,8 @@
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="5:6">
-      <c r="E35" s="8"/>
-      <c r="F35" s="4"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5582,10 +5558,10 @@
     <mergeCell ref="C6:C11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="C14:C20"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="C21:C27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B12:C12 E12">
@@ -5593,12 +5569,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:D26">
+  <conditionalFormatting sqref="D18 B21:D26 D24">
     <cfRule type="cellIs" dxfId="6" priority="173" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:E18">
+  <conditionalFormatting sqref="B19:E19">
     <cfRule type="cellIs" dxfId="5" priority="190" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -5608,7 +5584,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F27">
+  <conditionalFormatting sqref="F21:T26">
     <cfRule type="dataBar" priority="571">
       <dataBar>
         <cfvo type="min"/>
@@ -5617,26 +5593,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1959d947-6c5d-6e7f-1959-d9476c5d6e7f}</x14:id>
+          <x14:id>{2c6c3c75-5958-5b4a-2c6c-3c7559585b4a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21:G27">
-    <cfRule type="dataBar" priority="574">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9ddd8dc4-e8d9-eafb-9ddd-8dc4e8d9eafb}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20:P20 Q20:Q26 R20:S20 T20:T23 H21:P21 R21:S21 H22:P22 R22:S22 H23:P23 R23:S23 H24:P24 R24:T24 H25:P25 R25:T25 H26:P26 R26:T26 H27:T27">
+  <conditionalFormatting sqref="H21:P21 Q21:Q22 R21:S21 T21:T22 H22:P22 R22:S22 H23:P23 Q23:Q24 R23:T23 H25:T26 G21:T26">
     <cfRule type="dataBar" priority="606">
       <dataBar>
         <cfvo type="min"/>
@@ -5645,12 +5607,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e1411158-7444-7667-e141-115874447667}</x14:id>
+          <x14:id>{b3f3a3e9-c5c5-c7d6-b3f3-a3e9c5c5c7d6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:K14 M14:T14 G15:K15 M15:O18 O15:T15 G16:K16 M16 O16:T16 G17:K17 M17 O17:T17 G18:K18 M18 O18:T18 I18:K18 M18 O18:T18 L14:P14 M15 O15:P15 M16 O16:P16 M17 O17:P17 M18 O18:P18 L15:L18">
+  <conditionalFormatting sqref="G14:T14 G15:K15 L15:O18 P15:T15 G16:K16 P16:T16 G17:K17 P17:T17 G19:T19 G18:T18">
     <cfRule type="dataBar" priority="610">
       <dataBar>
         <cfvo type="min"/>
@@ -5659,12 +5621,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{85c595dc-f2c7-f2e3-85c5-95dcf2c7f2e3}</x14:id>
+          <x14:id>{3474246d-4141-4352-3474-246d41414352}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:K14 M14:T14 F15:K15 M15:O18 O15:T15 F16:K16 M16 O16:T16 F17:K17 M17 O17:T17 F18:K18 M18 O18:T18 L14:P14 M15 O15:P15 M16 O16:P16 M17 O17:P17 M18 O18:P18 L15:L18">
+  <conditionalFormatting sqref="F14:T14 F15:K15 L15:O18 P15:T15 F16:K16 P16:T16 F17:K17 P17:T17 F19:T19 F18 G18:T18">
     <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
@@ -5673,12 +5635,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{79491956-7c4c-7e6f-7949-19567c4c7e6f}</x14:id>
+          <x14:id>{b8f8a8e1-cdcd-cfde-b8f8-a8e1cdcdcfde}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:K14 M14:T14 F15:K15 M15:O18 O15:T15 F16:K16 M16 O16:T16 F17:K17 M17 O17:T17 F18:K18 M18 O18:T18 L14:P14 M15 O15:P15 M16 O16:P16 M17 O17:P17 M18 O18:P18 L15:L18">
+  <conditionalFormatting sqref="F14:T14 F15:K15 L15:O18 P15:T15 F16:K16 P16:T16 F17:K17 P17:T17 F19:T19 F18 G18:T18">
     <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="min"/>
@@ -5687,12 +5649,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8dcd9dd4-f8c8-faeb-8dcd-9dd4f8c8faeb}</x14:id>
+          <x14:id>{3c7c2c65-4949-4b5a-3c7c-2c6549494b5a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:G7 Q6:S10 F8:P8 T8 F9:P9 T9 F10:P10 T10">
+  <conditionalFormatting sqref="F6:G7 Q6:S9 F8:P8 T8 F9:P9 T9 F10:T10">
     <cfRule type="dataBar" priority="552">
       <dataBar>
         <cfvo type="min"/>
@@ -5701,12 +5663,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{31712168-4477-4657-3171-216844774657}</x14:id>
+          <x14:id>{84c494d9-f5f6-f7e6-84c4-94d9f5f6f7e6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:P6 Q6:S10 T6 H7:P7 T7">
+  <conditionalFormatting sqref="H6:P6 Q6:S9 T6 H7:P7 T7 Q10:S10">
     <cfRule type="dataBar" priority="554">
       <dataBar>
         <cfvo type="min"/>
@@ -5715,12 +5677,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b5f5a5ec-c5f3-c2d3-b5f5-a5ecc5f3c2d3}</x14:id>
+          <x14:id>{d444145d-7172-7362-d444-145d71727362}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20:Q20">
+  <conditionalFormatting sqref="H21:Q21 G21:T26">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -5729,12 +5691,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dd9dcd84-a899-aabb-dd9d-cd84a899aabb}</x14:id>
+          <x14:id>{6c2c7c35-1918-1b3a-6c2c-7c3519181b3a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:B10 E9:E10">
+  <conditionalFormatting sqref="B9 E9 B10 E10">
     <cfRule type="cellIs" dxfId="1" priority="229" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -5748,12 +5710,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5919494b-2c1d-2e3f-5919-494b2c1d2e3f}</x14:id>
+          <x14:id>{e8a8f8b1-9d9c-9f8e-e8a8-f8b19d9c9f8e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q6:S10 H9:P9 T9 H10:P10 T10">
+  <conditionalFormatting sqref="Q6:S9 H9:P9 T9 H10:T10">
     <cfRule type="dataBar" priority="495">
       <dataBar>
         <cfvo type="min"/>
@@ -5762,12 +5724,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d595c58c-af91-a2b3-d595-c58caf91a2b3}</x14:id>
+          <x14:id>{6424743d-1113-13a2-6424-743d111313a2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12:M12 O12:Q12 R12:T12 N12:O12">
+  <conditionalFormatting sqref="F12:T12">
     <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
@@ -5776,12 +5738,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{511141d8-2415-2637-5111-41d824152637}</x14:id>
+          <x14:id>{eeaefeb9-9594-9786-eeae-feb995949786}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12:M12 O12:Q12 R12:T12 N12:O12">
+  <conditionalFormatting sqref="F12:T12">
     <cfRule type="dataBar" priority="488">
       <dataBar>
         <cfvo type="min"/>
@@ -5790,12 +5752,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cd8ddd94-b888-baab-cd8d-dd94b888baab}</x14:id>
+          <x14:id>{7c3c6c25-f9a9-0b1a-7c3c-6c25f9a90b1a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12:M12 O12:Q12 H12:M12 O12:P12 Q12:T12 S12:T12 N12:O12">
+  <conditionalFormatting sqref="G12:T12">
     <cfRule type="dataBar" priority="491">
       <dataBar>
         <cfvo type="min"/>
@@ -5804,12 +5766,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{49e9591a-3cbc-3e2f-49e9-591a3cbc3e2f}</x14:id>
+          <x14:id>{f8b8e8a1-8d8d-8f9e-f8b8-e8a18d8d8f9e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D10">
+  <conditionalFormatting sqref="D6:D10 D24">
     <cfRule type="cellIs" dxfId="6" priority="144" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -5819,23 +5781,33 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15:D18">
+  <conditionalFormatting sqref="D15:D19 D24">
     <cfRule type="cellIs" dxfId="0" priority="109" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="0" priority="105" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21:D25">
+  <conditionalFormatting sqref="D18 D22:D24">
     <cfRule type="cellIs" dxfId="7" priority="237" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
+  <conditionalFormatting sqref="D18 D24 D26">
     <cfRule type="cellIs" dxfId="3" priority="127" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18 D24">
+    <cfRule type="cellIs" dxfId="7" priority="237" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="cellIs" dxfId="7" priority="237" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="cellIs" dxfId="7" priority="237" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5846,7 +5818,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1959d947-6c5d-6e7f-1959-d9476c5d6e7f}">
+          <x14:cfRule type="dataBar" id="{2c6c3c75-5958-5b4a-2c6c-3c7559585b4a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5856,7 +5828,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9ddd8dc4-e8d9-eafb-9ddd-8dc4e8d9eafb}">
+          <x14:cfRule type="dataBar" id="{b3f3a3e9-c5c5-c7d6-b3f3-a3e9c5c5c7d6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5866,7 +5838,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e1411158-7444-7667-e141-115874447667}">
+          <x14:cfRule type="dataBar" id="{3474246d-4141-4352-3474-246d41414352}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5876,7 +5848,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{85c595dc-f2c7-f2e3-85c5-95dcf2c7f2e3}">
+          <x14:cfRule type="dataBar" id="{b8f8a8e1-cdcd-cfde-b8f8-a8e1cdcdcfde}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5886,7 +5858,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{79491956-7c4c-7e6f-7949-19567c4c7e6f}">
+          <x14:cfRule type="dataBar" id="{3c7c2c65-4949-4b5a-3c7c-2c6549494b5a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5896,7 +5868,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8dcd9dd4-f8c8-faeb-8dcd-9dd4f8c8faeb}">
+          <x14:cfRule type="dataBar" id="{84c494d9-f5f6-f7e6-84c4-94d9f5f6f7e6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5906,7 +5878,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{31712168-4477-4657-3171-216844774657}">
+          <x14:cfRule type="dataBar" id="{d444145d-7172-7362-d444-145d71727362}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5916,7 +5888,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b5f5a5ec-c5f3-c2d3-b5f5-a5ecc5f3c2d3}">
+          <x14:cfRule type="dataBar" id="{6c2c7c35-1918-1b3a-6c2c-7c3519181b3a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5926,7 +5898,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{dd9dcd84-a899-aabb-dd9d-cd84a899aabb}">
+          <x14:cfRule type="dataBar" id="{e8a8f8b1-9d9c-9f8e-e8a8-f8b19d9c9f8e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5936,7 +5908,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5919494b-2c1d-2e3f-5919-494b2c1d2e3f}">
+          <x14:cfRule type="dataBar" id="{6424743d-1113-13a2-6424-743d111313a2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5946,7 +5918,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d595c58c-af91-a2b3-d595-c58caf91a2b3}">
+          <x14:cfRule type="dataBar" id="{eeaefeb9-9594-9786-eeae-feb995949786}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5956,7 +5928,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{511141d8-2415-2637-5111-41d824152637}">
+          <x14:cfRule type="dataBar" id="{7c3c6c25-f9a9-0b1a-7c3c-6c25f9a90b1a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5966,17 +5938,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cd8ddd94-b888-baab-cd8d-dd94b888baab}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{49e9591a-3cbc-3e2f-49e9-591a3cbc3e2f}">
+          <x14:cfRule type="dataBar" id="{f8b8e8a1-8d8d-8f9e-f8b8-e8a18d8d8f9e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/3팀보고.xlsx
+++ b/3팀보고.xlsx
@@ -3660,7 +3660,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a2e2b2fb-d7f6-f4c5-a2e2-b2fbd7f6f4c5}</x14:id>
+          <x14:id>{d494c48d-a182-b3a3-d494-c48da182b3a3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3674,7 +3674,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2666367f-5372-7341-2666-367f53727341}</x14:id>
+          <x14:id>{581848d9-2506-3727-5818-48d925063727}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3688,7 +3688,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{bafaaae3-cfee-fcdd-bafa-aae3cfeefcdd}</x14:id>
+          <x14:id>{dc9ccc85-a98a-bbab-dc9c-cc85a98abbab}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3702,7 +3702,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3e7e2e67-4b6a-7859-3e7e-2e674b6a7859}</x14:id>
+          <x14:id>{58184841-2d1e-3f2f-5818-48412d1e3f2f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3716,7 +3716,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b2f2a2eb-c7e6-f4d5-b2f2-a2ebc7e6f4d5}</x14:id>
+          <x14:id>{c484d49d-b182-a3b3-c484-d49db182a3b3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3730,7 +3730,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3676266f-4362-7251-3676-266f43627251}</x14:id>
+          <x14:id>{49795919-3526-2737-4979-591935262737}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3744,7 +3744,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8aca9ad3-ffde-fced-8aca-9ad3ffdefced}</x14:id>
+          <x14:id>{cc8cdc95-b98a-abbb-cc8c-dc95b98aabbb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3758,7 +3758,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2e4e1e57-7b5a-7869-2e4e-1e577b5a7869}</x14:id>
+          <x14:id>{48e85811-3d3e-2f3f-48e8-58113d3e2f3f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3772,7 +3772,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6626763f-1332-3fc1-6626-763f13323fc1}</x14:id>
+          <x14:id>{f4b4e4ad-8182-9383-f4b4-e4ad81829383}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3786,7 +3786,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e2a2f2bb-97b6-b485-e2a2-f2bb97b6b485}</x14:id>
+          <x14:id>{7e3e6e29-5506-17e7-7e3e-6e29550617e7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3800,7 +3800,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6e2e7e37-1b3a-3859-6e2e-7e371b3a3859}</x14:id>
+          <x14:id>{ce8ede97-bb9a-b9a8-ce8e-de97bb9ab9a8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3814,7 +3814,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{eaaafab3-9fbe-bc8d-eaaa-fab39fbebc8d}</x14:id>
+          <x14:id>{4afa5a13-3f1e-3d2c-4afa-5a133f1e3d2c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3838,7 +3838,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7636662f-0322-3e11-7636-662f03223e11}</x14:id>
+          <x14:id>{c686d69f-b392-b1a7-c686-d69fb392b1a7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3852,7 +3852,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f2b2e2ab-87a6-b495-f2b2-e2ab87a6b495}</x14:id>
+          <x14:id>{4262521b-3716-3524-4262-521b37163524}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3866,7 +3866,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7e3e6e27-9b2a-3819-7e3e-6e279b2a3819}</x14:id>
+          <x14:id>{de9ece87-ab8b-a9b8-de9e-ce87ab8ba9b8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3880,7 +3880,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fabaeaa3-8fae-bc9d-faba-eaa38faebc9d}</x14:id>
+          <x14:id>{5a1a4a53-2f8f-2d3c-5a1a-4a532f8f2d3c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3894,7 +3894,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4626561f-3312-3921-4626-561f33123921}</x14:id>
+          <x14:id>{d696c68f-a383-a1b6-d696-c68fa383a1b6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3906,7 +3906,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a2e2b2fb-d7f6-f4c5-a2e2-b2fbd7f6f4c5}">
+          <x14:cfRule type="dataBar" id="{d494c48d-a182-b3a3-d494-c48da182b3a3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3916,7 +3916,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2666367f-5372-7341-2666-367f53727341}">
+          <x14:cfRule type="dataBar" id="{581848d9-2506-3727-5818-48d925063727}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3926,7 +3926,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{bafaaae3-cfee-fcdd-bafa-aae3cfeefcdd}">
+          <x14:cfRule type="dataBar" id="{dc9ccc85-a98a-bbab-dc9c-cc85a98abbab}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3936,7 +3936,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3e7e2e67-4b6a-7859-3e7e-2e674b6a7859}">
+          <x14:cfRule type="dataBar" id="{58184841-2d1e-3f2f-5818-48412d1e3f2f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3946,7 +3946,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b2f2a2eb-c7e6-f4d5-b2f2-a2ebc7e6f4d5}">
+          <x14:cfRule type="dataBar" id="{c484d49d-b182-a3b3-c484-d49db182a3b3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3956,7 +3956,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3676266f-4362-7251-3676-266f43627251}">
+          <x14:cfRule type="dataBar" id="{49795919-3526-2737-4979-591935262737}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3966,7 +3966,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8aca9ad3-ffde-fced-8aca-9ad3ffdefced}">
+          <x14:cfRule type="dataBar" id="{cc8cdc95-b98a-abbb-cc8c-dc95b98aabbb}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3976,7 +3976,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2e4e1e57-7b5a-7869-2e4e-1e577b5a7869}">
+          <x14:cfRule type="dataBar" id="{48e85811-3d3e-2f3f-48e8-58113d3e2f3f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3986,7 +3986,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6626763f-1332-3fc1-6626-763f13323fc1}">
+          <x14:cfRule type="dataBar" id="{f4b4e4ad-8182-9383-f4b4-e4ad81829383}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3996,7 +3996,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e2a2f2bb-97b6-b485-e2a2-f2bb97b6b485}">
+          <x14:cfRule type="dataBar" id="{7e3e6e29-5506-17e7-7e3e-6e29550617e7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4006,7 +4006,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6e2e7e37-1b3a-3859-6e2e-7e371b3a3859}">
+          <x14:cfRule type="dataBar" id="{ce8ede97-bb9a-b9a8-ce8e-de97bb9ab9a8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4016,7 +4016,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{eaaafab3-9fbe-bc8d-eaaa-fab39fbebc8d}">
+          <x14:cfRule type="dataBar" id="{4afa5a13-3f1e-3d2c-4afa-5a133f1e3d2c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4026,7 +4026,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7636662f-0322-3e11-7636-662f03223e11}">
+          <x14:cfRule type="dataBar" id="{c686d69f-b392-b1a7-c686-d69fb392b1a7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4036,7 +4036,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f2b2e2ab-87a6-b495-f2b2-e2ab87a6b495}">
+          <x14:cfRule type="dataBar" id="{4262521b-3716-3524-4262-521b37163524}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4046,7 +4046,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7e3e6e27-9b2a-3819-7e3e-6e279b2a3819}">
+          <x14:cfRule type="dataBar" id="{de9ece87-ab8b-a9b8-de9e-ce87ab8ba9b8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4056,7 +4056,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{fabaeaa3-8fae-bc9d-faba-eaa38faebc9d}">
+          <x14:cfRule type="dataBar" id="{5a1a4a53-2f8f-2d3c-5a1a-4a532f8f2d3c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4066,7 +4066,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4626561f-3312-3921-4626-561f33123921}">
+          <x14:cfRule type="dataBar" id="{d696c68f-a383-a1b6-d696-c68fa383a1b6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4085,8 +4085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:D26"/>
+    <sheetView topLeftCell="A4" tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
@@ -4195,19 +4195,19 @@
       </c>
       <c r="P3" s="6">
         <f>AVERAGE(P11,P13,P20,P27)</f>
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="Q3" s="6">
         <f>AVERAGE(Q11,Q13,Q20,Q27)</f>
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="R3" s="6">
         <f>AVERAGE(R11,R13,R20,R27)</f>
-        <v>0</v>
+        <v>0.3425</v>
       </c>
       <c r="S3" s="6">
         <f>AVERAGE(S11,S13,S20,S27)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="T3" s="6">
         <f>AVERAGE(T11,T13,T20,T27)</f>
@@ -4311,13 +4311,13 @@
         <v>0.8</v>
       </c>
       <c r="P6" s="9">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="Q6" s="9">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="R6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="9">
         <v>0</v>
@@ -4364,13 +4364,13 @@
         <v>1</v>
       </c>
       <c r="P7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="9">
         <v>0</v>
@@ -4417,13 +4417,13 @@
         <v>1</v>
       </c>
       <c r="P8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="9">
         <v>0</v>
@@ -4470,13 +4470,13 @@
         <v>0.35</v>
       </c>
       <c r="P9" s="9">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="Q9" s="9">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="R9" s="9">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="S9" s="9">
         <v>0</v>
@@ -4585,15 +4585,15 @@
       </c>
       <c r="P11" s="6">
         <f>AVERAGE(P6:P10)</f>
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="Q11" s="6">
         <f>AVERAGE(Q6:Q10)</f>
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="R11" s="6">
         <f>AVERAGE(R6:R10)</f>
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="S11" s="6">
         <f>AVERAGE(S6:S10)</f>
@@ -4646,16 +4646,16 @@
         <v>0.65</v>
       </c>
       <c r="P12" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Q12" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="R12" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="S12" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="T12" s="9">
         <v>0</v>
@@ -4708,19 +4708,19 @@
       </c>
       <c r="P13" s="6">
         <f>AVERAGE(P12:P12)</f>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Q13" s="6">
         <f>AVERAGE(Q12:Q12)</f>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="R13" s="6">
         <f>AVERAGE(R12:R12)</f>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="S13" s="6">
         <f>AVERAGE(S12:S12)</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="T13" s="6">
         <f>AVERAGE(T12:T12)</f>
@@ -5504,25 +5504,8 @@
       </c>
     </row>
     <row r="28" spans="2:20">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
       <c r="E28" s="8"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
     </row>
     <row r="29" spans="2:20">
       <c r="E29" s="8"/>
@@ -5547,10 +5530,6 @@
     <row r="34" spans="5:6">
       <c r="E34" s="8"/>
       <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="5:6">
-      <c r="E35" s="1"/>
-      <c r="F35" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5593,7 +5572,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2c6c3c75-5958-5b4a-2c6c-3c7559585b4a}</x14:id>
+          <x14:id>{d494c48d-a182-b3a3-d494-c48da182b3a3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5607,7 +5586,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b3f3a3e9-c5c5-c7d6-b3f3-a3e9c5c5c7d6}</x14:id>
+          <x14:id>{581848d9-2506-3727-5818-48d925063727}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5621,7 +5600,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3474246d-4141-4352-3474-246d41414352}</x14:id>
+          <x14:id>{dc9ccc85-a98a-bbab-dc9c-cc85a98abbab}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5635,7 +5614,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b8f8a8e1-cdcd-cfde-b8f8-a8e1cdcdcfde}</x14:id>
+          <x14:id>{58184841-2d1e-3f2f-5818-48412d1e3f2f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5649,7 +5628,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3c7c2c65-4949-4b5a-3c7c-2c6549494b5a}</x14:id>
+          <x14:id>{c484d49d-b182-a3b3-c484-d49db182a3b3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5663,7 +5642,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{84c494d9-f5f6-f7e6-84c4-94d9f5f6f7e6}</x14:id>
+          <x14:id>{49795919-3526-2737-4979-591935262737}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5677,7 +5656,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d444145d-7172-7362-d444-145d71727362}</x14:id>
+          <x14:id>{cc8cdc95-b98a-abbb-cc8c-dc95b98aabbb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5691,7 +5670,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6c2c7c35-1918-1b3a-6c2c-7c3519181b3a}</x14:id>
+          <x14:id>{48e85811-3d3e-2f3f-48e8-58113d3e2f3f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5710,7 +5689,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e8a8f8b1-9d9c-9f8e-e8a8-f8b19d9c9f8e}</x14:id>
+          <x14:id>{f4b4e4ad-8182-9383-f4b4-e4ad81829383}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5724,7 +5703,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6424743d-1113-13a2-6424-743d111313a2}</x14:id>
+          <x14:id>{7e3e6e29-5506-17e7-7e3e-6e29550617e7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5738,7 +5717,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{eeaefeb9-9594-9786-eeae-feb995949786}</x14:id>
+          <x14:id>{ce8ede97-bb9a-b9a8-ce8e-de97bb9ab9a8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5752,7 +5731,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7c3c6c25-f9a9-0b1a-7c3c-6c25f9a90b1a}</x14:id>
+          <x14:id>{4afa5a13-3f1e-3d2c-4afa-5a133f1e3d2c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5766,7 +5745,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f8b8e8a1-8d8d-8f9e-f8b8-e8a18d8d8f9e}</x14:id>
+          <x14:id>{c686d69f-b392-b1a7-c686-d69fb392b1a7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5818,7 +5797,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2c6c3c75-5958-5b4a-2c6c-3c7559585b4a}">
+          <x14:cfRule type="dataBar" id="{d494c48d-a182-b3a3-d494-c48da182b3a3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5828,7 +5807,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b3f3a3e9-c5c5-c7d6-b3f3-a3e9c5c5c7d6}">
+          <x14:cfRule type="dataBar" id="{581848d9-2506-3727-5818-48d925063727}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5838,7 +5817,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3474246d-4141-4352-3474-246d41414352}">
+          <x14:cfRule type="dataBar" id="{dc9ccc85-a98a-bbab-dc9c-cc85a98abbab}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5848,7 +5827,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b8f8a8e1-cdcd-cfde-b8f8-a8e1cdcdcfde}">
+          <x14:cfRule type="dataBar" id="{58184841-2d1e-3f2f-5818-48412d1e3f2f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5858,7 +5837,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3c7c2c65-4949-4b5a-3c7c-2c6549494b5a}">
+          <x14:cfRule type="dataBar" id="{c484d49d-b182-a3b3-c484-d49db182a3b3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5868,7 +5847,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{84c494d9-f5f6-f7e6-84c4-94d9f5f6f7e6}">
+          <x14:cfRule type="dataBar" id="{49795919-3526-2737-4979-591935262737}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5878,7 +5857,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d444145d-7172-7362-d444-145d71727362}">
+          <x14:cfRule type="dataBar" id="{cc8cdc95-b98a-abbb-cc8c-dc95b98aabbb}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5888,7 +5867,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6c2c7c35-1918-1b3a-6c2c-7c3519181b3a}">
+          <x14:cfRule type="dataBar" id="{48e85811-3d3e-2f3f-48e8-58113d3e2f3f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5898,7 +5877,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e8a8f8b1-9d9c-9f8e-e8a8-f8b19d9c9f8e}">
+          <x14:cfRule type="dataBar" id="{f4b4e4ad-8182-9383-f4b4-e4ad81829383}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5908,7 +5887,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6424743d-1113-13a2-6424-743d111313a2}">
+          <x14:cfRule type="dataBar" id="{7e3e6e29-5506-17e7-7e3e-6e29550617e7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5918,7 +5897,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{eeaefeb9-9594-9786-eeae-feb995949786}">
+          <x14:cfRule type="dataBar" id="{ce8ede97-bb9a-b9a8-ce8e-de97bb9ab9a8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5928,7 +5907,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7c3c6c25-f9a9-0b1a-7c3c-6c25f9a90b1a}">
+          <x14:cfRule type="dataBar" id="{4afa5a13-3f1e-3d2c-4afa-5a133f1e3d2c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5938,7 +5917,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f8b8e8a1-8d8d-8f9e-f8b8-e8a18d8d8f9e}">
+          <x14:cfRule type="dataBar" id="{c686d69f-b392-b1a7-c686-d69fb392b1a7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/3팀보고.xlsx
+++ b/3팀보고.xlsx
@@ -1,36 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="6" lowestEdited="6" rupBuild="9.104.165.50235"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web_dev\parking-mate\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884F125B-A84E-4DA9-9EB1-7531EC36F7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2745" yWindow="1905" windowWidth="21600" windowHeight="11385" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="퍼블리싱" sheetId="1" r:id="rId1"/>
     <sheet name="백앤드" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors/>
-  <commentList/>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors/>
-  <commentList/>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
   <si>
     <t>페이지</t>
   </si>
@@ -79,9 +81,6 @@
   </si>
   <si>
     <t>예약내역 확인</t>
-  </si>
-  <si>
-    <t>결제수단 관리</t>
   </si>
   <si>
     <t>차량관리</t>
@@ -164,22 +163,6 @@
     <t>최예니</t>
   </si>
   <si>
-    <t>내위치
-공지사항</t>
-  </si>
-  <si>
-    <t>박민수 예약하기, 이벤트</t>
-  </si>
-  <si>
-    <t>김홍준 메인 페이지</t>
-  </si>
-  <si>
-    <t>김영채 마이 페이지</t>
-  </si>
-  <si>
-    <t>최예니 주차장 업로드, 회원가입, 로그인</t>
-  </si>
-  <si>
     <t>쿠폰받기</t>
   </si>
   <si>
@@ -204,162 +187,61 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="맑은 고딕"/>
       <scheme val="minor"/>
-      <color rgb="FF006100"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
-      <color theme="1"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="맑은 고딕"/>
-      <color rgb="FF006100"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
       <scheme val="minor"/>
-      <color theme="10"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="맑은 고딕"/>
       <scheme val="minor"/>
-      <color theme="11"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFF0000"/>
-    </font>
-    <font>
-      <sz val="18.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF3F3F76"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF3F3F3F"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFA7D00"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFFFFFF"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFA7D00"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF9C0006"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF9C6500"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -385,187 +267,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -580,6 +289,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -592,6 +302,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -602,6 +313,7 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -614,405 +326,127 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFACCCEA"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399980"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
-    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
-    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
-    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
-    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
-    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
-    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
-    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
-    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
-    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
-    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
-    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
-    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
-    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
-    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
-    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
-    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
-    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
-    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
-    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
-    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
-    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
-    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
-    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
-    <cellStyle name="경고문" xfId="10" builtinId="11"/>
-    <cellStyle name="계산" xfId="18" builtinId="22"/>
-    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
-    <cellStyle name="메모" xfId="9" builtinId="10"/>
+  <cellStyles count="6">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="보통" xfId="23" builtinId="28"/>
-    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
-    <cellStyle name="셀 확인" xfId="19" builtinId="23"/>
-    <cellStyle name="쉼표" xfId="6" builtinId="3"/>
     <cellStyle name="쉼표 [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="연결된 셀" xfId="20" builtinId="24"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="요약" xfId="21" builtinId="25"/>
-    <cellStyle name="입력" xfId="16" builtinId="20"/>
-    <cellStyle name="제목" xfId="11" builtinId="15"/>
-    <cellStyle name="제목 1" xfId="12" builtinId="16"/>
-    <cellStyle name="제목 2" xfId="13" builtinId="17"/>
-    <cellStyle name="제목 3" xfId="14" builtinId="18"/>
-    <cellStyle name="제목 4" xfId="15" builtinId="19"/>
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
-    <cellStyle name="출력" xfId="17" builtinId="21"/>
-    <cellStyle name="통화" xfId="7" builtinId="4"/>
-    <cellStyle name="통화[0]" xfId="8" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="4" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1026,26 +460,6 @@
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
       </font>
       <fill>
         <patternFill>
@@ -1093,7 +507,136 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1359,26 +902,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:W43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:W43"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="4" width="4.50500011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" style="1" width="8.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" style="1" width="13.38000011" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" style="1" width="24.37999916" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" style="1" width="26.37999916" hidden="1" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" style="8" width="10.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="22" style="4" width="10.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="23" max="16384" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="4.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.375" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="8" customWidth="1"/>
+    <col min="7" max="22" width="10.625" style="4" customWidth="1"/>
+    <col min="23" max="23" width="9" style="4" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
       <c r="E2" s="2"/>
       <c r="F2" s="3">
         <v>45157</v>
@@ -1435,89 +979,89 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="3" spans="2:23">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <f>AVERAGE(F13,F21,F23,F34,F36)</f>
-        <v>0.0628571428571428</v>
+        <f t="shared" ref="F3:W3" si="0">AVERAGE(F13,F21,F23,F34,F36)</f>
+        <v>6.2857142857142861E-2</v>
       </c>
       <c r="G3" s="6">
-        <f>AVERAGE(G13,G21,G23,G34,G36)</f>
-        <v>0.0950476190476191</v>
+        <f t="shared" si="0"/>
+        <v>9.5047619047619061E-2</v>
       </c>
       <c r="H3" s="6">
-        <f>AVERAGE(H13,H21,H23,H34,H36)</f>
-        <v>0.118285714285714</v>
+        <f t="shared" si="0"/>
+        <v>0.1182857142857143</v>
       </c>
       <c r="I3" s="6">
-        <f>AVERAGE(I13,I21,I23,I34,I36)</f>
-        <v>0.171285714285714</v>
+        <f t="shared" si="0"/>
+        <v>0.17128571428571432</v>
       </c>
       <c r="J3" s="6">
-        <f>AVERAGE(J13,J21,J23,J34,J36)</f>
-        <v>0.259</v>
+        <f t="shared" si="0"/>
+        <v>0.25900000000000001</v>
       </c>
       <c r="K3" s="6">
-        <f>AVERAGE(K13,K21,K23,K34,K36)</f>
-        <v>0.314857142857143</v>
+        <f t="shared" si="0"/>
+        <v>0.31485714285714284</v>
       </c>
       <c r="L3" s="6">
-        <f>AVERAGE(L13,L21,L23,L34,L36)</f>
-        <v>0.386571428571429</v>
+        <f t="shared" si="0"/>
+        <v>0.38657142857142851</v>
       </c>
       <c r="M3" s="6">
-        <f>AVERAGE(M13,M21,M23,M34,M36)</f>
-        <v>0.442190476190476</v>
+        <f t="shared" si="0"/>
+        <v>0.44219047619047619</v>
       </c>
       <c r="N3" s="6">
-        <f>AVERAGE(N13,N21,N23,N34,N36)</f>
-        <v>0.518238095238095</v>
+        <f t="shared" si="0"/>
+        <v>0.51823809523809528</v>
       </c>
       <c r="O3" s="6">
-        <f>AVERAGE(O13,O21,O23,O34,O36)</f>
-        <v>0.623333333333333</v>
+        <f t="shared" si="0"/>
+        <v>0.62333333333333329</v>
       </c>
       <c r="P3" s="6">
-        <f>AVERAGE(P13,P21,P23,P34,P36)</f>
-        <v>0.636190476190476</v>
+        <f t="shared" si="0"/>
+        <v>0.6361904761904762</v>
       </c>
       <c r="Q3" s="6">
-        <f>AVERAGE(Q13,Q21,Q23,Q34,Q36)</f>
-        <v>0.777857142857143</v>
+        <f t="shared" si="0"/>
+        <v>0.77785714285714291</v>
       </c>
       <c r="R3" s="6">
-        <f>AVERAGE(R13,R21,R23,R34,R36)</f>
-        <v>0.820666666666667</v>
+        <f t="shared" si="0"/>
+        <v>0.82066666666666666</v>
       </c>
       <c r="S3" s="6">
-        <f>AVERAGE(S13,S21,S23,S34,S36)</f>
-        <v>0.843428571428571</v>
+        <f t="shared" si="0"/>
+        <v>0.84342857142857142</v>
       </c>
       <c r="T3" s="6">
-        <f>AVERAGE(T13,T21,T23,T34,T36)</f>
-        <v>0.872761904761905</v>
+        <f t="shared" si="0"/>
+        <v>0.87276190476190474</v>
       </c>
       <c r="U3" s="6">
-        <f>AVERAGE(U13,U21,U23,U34,U36)</f>
-        <v>0.897714285714286</v>
+        <f t="shared" si="0"/>
+        <v>0.89771428571428569</v>
       </c>
       <c r="V3" s="6">
-        <f>AVERAGE(V13,V21,V23,V34,V36)</f>
-        <v>0.896</v>
+        <f t="shared" si="0"/>
+        <v>0.89600000000000013</v>
       </c>
       <c r="W3" s="6">
-        <f>AVERAGE(W13,W21,W23,W34,W36)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="H4" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="2:23" ht="20.100000" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
         <v>0</v>
@@ -1581,15 +1125,15 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="6" spans="2:23" ht="16.500000" customHeight="1">
-      <c r="B6" s="13" t="s">
+    <row r="6" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>38</v>
+      <c r="C6" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="9">
@@ -1647,11 +1191,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:23" ht="16.500000" customHeight="1">
-      <c r="B7" s="14"/>
-      <c r="C7" s="11"/>
+    <row r="7" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="18"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="9">
@@ -1709,11 +1253,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:23" ht="16.150000" customHeight="1">
-      <c r="B8" s="14"/>
-      <c r="C8" s="11"/>
+    <row r="8" spans="2:23" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="18"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="9">
@@ -1771,9 +1315,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:23">
-      <c r="B9" s="14"/>
-      <c r="C9" s="11"/>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B9" s="18"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="7" t="s">
         <v>3</v>
       </c>
@@ -1833,9 +1377,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:23">
-      <c r="B10" s="14"/>
-      <c r="C10" s="11"/>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B10" s="18"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="7" t="s">
         <v>5</v>
       </c>
@@ -1895,9 +1439,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:23">
-      <c r="B11" s="14"/>
-      <c r="C11" s="20"/>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B11" s="18"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="7" t="s">
         <v>6</v>
       </c>
@@ -1957,13 +1501,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:23">
-      <c r="B12" s="14"/>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B12" s="18"/>
       <c r="C12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9">
@@ -2021,93 +1565,93 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:23">
-      <c r="B13" s="15"/>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B13" s="19"/>
       <c r="C13" s="12"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="6">
-        <f>AVERAGE(F6:F12)</f>
-        <v>0.114285714285714</v>
+        <f t="shared" ref="F13:W13" si="1">AVERAGE(F6:F12)</f>
+        <v>0.1142857142857143</v>
       </c>
       <c r="G13" s="6">
-        <f>AVERAGE(G6:G12)</f>
-        <v>0.128571428571429</v>
+        <f t="shared" si="1"/>
+        <v>0.12857142857142859</v>
       </c>
       <c r="H13" s="6">
-        <f>AVERAGE(H6:H12)</f>
-        <v>0.171428571428571</v>
+        <f t="shared" si="1"/>
+        <v>0.17142857142857143</v>
       </c>
       <c r="I13" s="6">
-        <f>AVERAGE(I6:I12)</f>
-        <v>0.371428571428571</v>
+        <f t="shared" si="1"/>
+        <v>0.37142857142857144</v>
       </c>
       <c r="J13" s="6">
-        <f>AVERAGE(J6:J12)</f>
+        <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="K13" s="6">
-        <f>AVERAGE(K6:K12)</f>
-        <v>0.614285714285714</v>
+        <f t="shared" si="1"/>
+        <v>0.61428571428571421</v>
       </c>
       <c r="L13" s="6">
-        <f>AVERAGE(L6:L12)</f>
-        <v>0.642857142857143</v>
+        <f t="shared" si="1"/>
+        <v>0.6428571428571429</v>
       </c>
       <c r="M13" s="6">
-        <f>AVERAGE(M6:M12)</f>
-        <v>0.714285714285714</v>
+        <f t="shared" si="1"/>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N13" s="6">
-        <f>AVERAGE(N6:N12)</f>
-        <v>0.742857142857143</v>
+        <f t="shared" si="1"/>
+        <v>0.74285714285714288</v>
       </c>
       <c r="O13" s="6">
-        <f>AVERAGE(O6:O12)</f>
-        <v>0.8</v>
+        <f t="shared" si="1"/>
+        <v>0.79999999999999993</v>
       </c>
       <c r="P13" s="6">
-        <f>AVERAGE(P6:P12)</f>
-        <v>0.864285714285714</v>
+        <f t="shared" si="1"/>
+        <v>0.86428571428571443</v>
       </c>
       <c r="Q13" s="6">
-        <f>AVERAGE(Q6:Q12)</f>
-        <v>0.864285714285714</v>
+        <f t="shared" si="1"/>
+        <v>0.86428571428571443</v>
       </c>
       <c r="R13" s="6">
-        <f>AVERAGE(R6:R12)</f>
-        <v>0.9</v>
+        <f t="shared" si="1"/>
+        <v>0.90000000000000013</v>
       </c>
       <c r="S13" s="6">
-        <f>AVERAGE(S6:S12)</f>
-        <v>0.907142857142857</v>
+        <f t="shared" si="1"/>
+        <v>0.90714285714285725</v>
       </c>
       <c r="T13" s="6">
-        <f>AVERAGE(T6:T12)</f>
-        <v>0.957142857142857</v>
+        <f t="shared" si="1"/>
+        <v>0.95714285714285718</v>
       </c>
       <c r="U13" s="6">
-        <f>AVERAGE(U6:U12)</f>
-        <v>0.978571428571429</v>
+        <f t="shared" si="1"/>
+        <v>0.97857142857142854</v>
       </c>
       <c r="V13" s="6">
-        <f>AVERAGE(V6:V12)</f>
-        <v>0.992857142857143</v>
+        <f t="shared" si="1"/>
+        <v>0.99285714285714288</v>
       </c>
       <c r="W13" s="6">
-        <f>AVERAGE(W6:W12)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:23">
-      <c r="B14" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="19" t="s">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B14" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9">
@@ -2165,9 +1709,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:23">
-      <c r="B15" s="22"/>
-      <c r="C15" s="17"/>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B15" s="24"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="7" t="s">
         <v>14</v>
       </c>
@@ -2197,7 +1741,7 @@
         <v>0.45</v>
       </c>
       <c r="N15" s="9">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O15" s="9">
         <v>0.6</v>
@@ -2227,9 +1771,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:23">
-      <c r="B16" s="22"/>
-      <c r="C16" s="17"/>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B16" s="24"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="7" t="s">
         <v>15</v>
       </c>
@@ -2289,11 +1833,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:23">
-      <c r="B17" s="22"/>
-      <c r="C17" s="17"/>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B17" s="24"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="9">
@@ -2351,11 +1895,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:23">
-      <c r="B18" s="22"/>
-      <c r="C18" s="17"/>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B18" s="24"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="9">
@@ -2413,11 +1957,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:23">
-      <c r="B19" s="22"/>
-      <c r="C19" s="17"/>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B19" s="24"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="9">
@@ -2475,11 +2019,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:23">
-      <c r="B20" s="22"/>
-      <c r="C20" s="17"/>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B20" s="24"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="9"/>
@@ -2505,93 +2049,93 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:23">
-      <c r="B21" s="23"/>
-      <c r="C21" s="18"/>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B21" s="25"/>
+      <c r="C21" s="28"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="6">
-        <f>AVERAGE(F14:F19)</f>
-        <v>0.05</v>
+        <f t="shared" ref="F21:U21" si="2">AVERAGE(F14:F19)</f>
+        <v>4.9999999999999996E-2</v>
       </c>
       <c r="G21" s="6">
-        <f>AVERAGE(G14:G19)</f>
-        <v>0.0866666666666667</v>
+        <f t="shared" si="2"/>
+        <v>8.666666666666667E-2</v>
       </c>
       <c r="H21" s="6">
-        <f>AVERAGE(H14:H19)</f>
-        <v>0.07</v>
+        <f t="shared" si="2"/>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I21" s="6">
-        <f>AVERAGE(I14:I19)</f>
-        <v>0.095</v>
+        <f t="shared" si="2"/>
+        <v>9.4999999999999987E-2</v>
       </c>
       <c r="J21" s="6">
-        <f>AVERAGE(J14:J19)</f>
+        <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
       <c r="K21" s="6">
-        <f>AVERAGE(K14:K19)</f>
+        <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
       <c r="L21" s="6">
-        <f>AVERAGE(L14:L19)</f>
-        <v>0.2</v>
+        <f t="shared" si="2"/>
+        <v>0.19999999999999998</v>
       </c>
       <c r="M21" s="6">
-        <f>AVERAGE(M14:M19)</f>
-        <v>0.216666666666667</v>
+        <f t="shared" si="2"/>
+        <v>0.21666666666666667</v>
       </c>
       <c r="N21" s="6">
-        <f>AVERAGE(N14:N19)</f>
-        <v>0.378333333333333</v>
+        <f t="shared" si="2"/>
+        <v>0.37833333333333335</v>
       </c>
       <c r="O21" s="6">
-        <f>AVERAGE(O14:O19)</f>
-        <v>0.441666666666667</v>
+        <f t="shared" si="2"/>
+        <v>0.44166666666666665</v>
       </c>
       <c r="P21" s="6">
-        <f>AVERAGE(P14:P19)</f>
-        <v>0.441666666666667</v>
+        <f t="shared" si="2"/>
+        <v>0.44166666666666665</v>
       </c>
       <c r="Q21" s="6">
-        <f>AVERAGE(Q14:Q19)</f>
-        <v>0.55</v>
+        <f t="shared" si="2"/>
+        <v>0.54999999999999993</v>
       </c>
       <c r="R21" s="6">
-        <f>AVERAGE(R14:R19)</f>
-        <v>0.713333333333333</v>
+        <f t="shared" si="2"/>
+        <v>0.71333333333333337</v>
       </c>
       <c r="S21" s="6">
-        <f>AVERAGE(S14:S19)</f>
-        <v>0.8</v>
+        <f t="shared" si="2"/>
+        <v>0.80000000000000016</v>
       </c>
       <c r="T21" s="6">
-        <f>AVERAGE(T14:T19)</f>
-        <v>0.896666666666667</v>
+        <f t="shared" si="2"/>
+        <v>0.89666666666666661</v>
       </c>
       <c r="U21" s="6">
-        <f>AVERAGE(U14:U19)</f>
+        <f t="shared" si="2"/>
         <v>0.96</v>
       </c>
       <c r="V21" s="6">
         <f>AVERAGE(V14:V20)</f>
-        <v>0.857142857142857</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="W21" s="6">
         <f>AVERAGE(W14:W20)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:23">
-      <c r="B22" s="13" t="s">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B22" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="9">
@@ -2649,93 +2193,93 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:23">
-      <c r="B23" s="15"/>
-      <c r="C23" s="26"/>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B23" s="19"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="6">
-        <f>AVERAGE(F22:F22)</f>
+        <f t="shared" ref="F23:W23" si="3">AVERAGE(F22:F22)</f>
         <v>0.1</v>
       </c>
       <c r="G23" s="6">
-        <f>AVERAGE(G22:G22)</f>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
       <c r="H23" s="6">
-        <f>AVERAGE(H22:H22)</f>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
       <c r="I23" s="6">
-        <f>AVERAGE(I22:I22)</f>
+        <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
       <c r="J23" s="6">
-        <f>AVERAGE(J22:J22)</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K23" s="6">
-        <f>AVERAGE(K22:K22)</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="L23" s="6">
-        <f>AVERAGE(L22:L22)</f>
+        <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
       <c r="M23" s="6">
-        <f>AVERAGE(M22:M22)</f>
+        <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
       <c r="N23" s="6">
-        <f>AVERAGE(N22:N22)</f>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="O23" s="6">
-        <f>AVERAGE(O22:O22)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P23" s="6">
-        <f>AVERAGE(P22:P22)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Q23" s="6">
-        <f>AVERAGE(Q22:Q22)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R23" s="6">
-        <f>AVERAGE(R22:R22)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="S23" s="6">
-        <f>AVERAGE(S22:S22)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T23" s="6">
-        <f>AVERAGE(T22:T22)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U23" s="6">
-        <f>AVERAGE(U22:U22)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V23" s="6">
-        <f>AVERAGE(V22:V22)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="W23" s="6">
-        <f>AVERAGE(W22:W22)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:23">
-      <c r="B24" s="13" t="s">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B24" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="9">
@@ -2793,11 +2337,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:23">
-      <c r="B25" s="14"/>
-      <c r="C25" s="17"/>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B25" s="18"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="9">
@@ -2855,11 +2399,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:23">
-      <c r="B26" s="14"/>
-      <c r="C26" s="17"/>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B26" s="18"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="9">
@@ -2917,11 +2461,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:23">
-      <c r="B27" s="14"/>
-      <c r="C27" s="17"/>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B27" s="18"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="9">
@@ -2979,11 +2523,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:23">
-      <c r="B28" s="14"/>
-      <c r="C28" s="17"/>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B28" s="18"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="9">
@@ -3041,11 +2585,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:23">
-      <c r="B29" s="14"/>
-      <c r="C29" s="17"/>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B29" s="18"/>
+      <c r="C29" s="27"/>
       <c r="D29" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="9">
@@ -3103,11 +2647,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:23">
-      <c r="B30" s="14"/>
-      <c r="C30" s="17"/>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B30" s="18"/>
+      <c r="C30" s="27"/>
       <c r="D30" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="9">
@@ -3165,11 +2709,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:23">
-      <c r="B31" s="14"/>
-      <c r="C31" s="17"/>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B31" s="18"/>
+      <c r="C31" s="27"/>
       <c r="D31" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="9">
@@ -3227,11 +2771,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:23">
-      <c r="B32" s="14"/>
-      <c r="C32" s="17"/>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B32" s="18"/>
+      <c r="C32" s="27"/>
       <c r="D32" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="9">
@@ -3289,11 +2833,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:23">
-      <c r="B33" s="14"/>
-      <c r="C33" s="17"/>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B33" s="18"/>
+      <c r="C33" s="27"/>
       <c r="D33" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="9">
@@ -3351,93 +2895,93 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:23">
-      <c r="B34" s="15"/>
-      <c r="C34" s="18"/>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B34" s="19"/>
+      <c r="C34" s="28"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="6">
-        <f>AVERAGE(F24:F33)</f>
+        <f t="shared" ref="F34:W34" si="4">AVERAGE(F24:F33)</f>
         <v>0</v>
       </c>
       <c r="G34" s="6">
-        <f>AVERAGE(G24:G33)</f>
+        <f t="shared" si="4"/>
         <v>0.01</v>
       </c>
       <c r="H34" s="6">
-        <f>AVERAGE(H24:H33)</f>
+        <f t="shared" si="4"/>
         <v>0.05</v>
       </c>
       <c r="I34" s="6">
-        <f>AVERAGE(I24:I33)</f>
+        <f t="shared" si="4"/>
         <v>0.04</v>
       </c>
       <c r="J34" s="6">
-        <f>AVERAGE(J24:J33)</f>
+        <f t="shared" si="4"/>
         <v>0.09</v>
       </c>
       <c r="K34" s="6">
-        <f>AVERAGE(K24:K33)</f>
+        <f t="shared" si="4"/>
         <v>0.13</v>
       </c>
       <c r="L34" s="6">
-        <f>AVERAGE(L24:L33)</f>
-        <v>0.21</v>
+        <f t="shared" si="4"/>
+        <v>0.21000000000000002</v>
       </c>
       <c r="M34" s="6">
-        <f>AVERAGE(M24:M33)</f>
+        <f t="shared" si="4"/>
         <v>0.3</v>
       </c>
       <c r="N34" s="6">
-        <f>AVERAGE(N24:N33)</f>
+        <f t="shared" si="4"/>
         <v>0.39</v>
       </c>
       <c r="O34" s="6">
-        <f>AVERAGE(O24:O33)</f>
-        <v>0.475</v>
+        <f t="shared" si="4"/>
+        <v>0.47499999999999998</v>
       </c>
       <c r="P34" s="6">
-        <f>AVERAGE(P24:P33)</f>
-        <v>0.475</v>
+        <f t="shared" si="4"/>
+        <v>0.47499999999999998</v>
       </c>
       <c r="Q34" s="6">
-        <f>AVERAGE(Q24:Q33)</f>
-        <v>0.475</v>
+        <f t="shared" si="4"/>
+        <v>0.47499999999999998</v>
       </c>
       <c r="R34" s="6">
-        <f>AVERAGE(R24:R33)</f>
-        <v>0.49</v>
+        <f t="shared" si="4"/>
+        <v>0.49000000000000005</v>
       </c>
       <c r="S34" s="6">
-        <f>AVERAGE(S24:S33)</f>
+        <f t="shared" si="4"/>
         <v>0.51</v>
       </c>
       <c r="T34" s="6">
-        <f>AVERAGE(T24:T33)</f>
+        <f t="shared" si="4"/>
         <v>0.51</v>
       </c>
       <c r="U34" s="6">
-        <f>AVERAGE(U24:U33)</f>
-        <v>0.55</v>
+        <f t="shared" si="4"/>
+        <v>0.55000000000000004</v>
       </c>
       <c r="V34" s="6">
-        <f>AVERAGE(V24:V33)</f>
+        <f t="shared" si="4"/>
         <v>0.63</v>
       </c>
       <c r="W34" s="6">
-        <f>AVERAGE(W24:W33)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:23">
-      <c r="B35" s="13" t="s">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B35" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="26" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="9">
@@ -3495,236 +3039,162 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:23">
-      <c r="B36" s="15"/>
-      <c r="C36" s="18"/>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B36" s="19"/>
+      <c r="C36" s="28"/>
       <c r="D36" s="7"/>
       <c r="F36" s="6">
-        <f>AVERAGE(F35:F35)</f>
+        <f t="shared" ref="F36:W36" si="5">AVERAGE(F35:F35)</f>
         <v>0.05</v>
       </c>
       <c r="G36" s="6">
-        <f>AVERAGE(G35:G35)</f>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
       <c r="H36" s="6">
-        <f>AVERAGE(H35:H35)</f>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
       <c r="I36" s="6">
-        <f>AVERAGE(I35:I35)</f>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
       <c r="J36" s="6">
-        <f>AVERAGE(J35:J35)</f>
+        <f t="shared" si="5"/>
         <v>0.08</v>
       </c>
       <c r="K36" s="6">
-        <f>AVERAGE(K35:K35)</f>
+        <f t="shared" si="5"/>
         <v>0.18</v>
       </c>
       <c r="L36" s="6">
-        <f>AVERAGE(L35:L35)</f>
+        <f t="shared" si="5"/>
         <v>0.18</v>
       </c>
       <c r="M36" s="6">
-        <f>AVERAGE(M35:M35)</f>
+        <f t="shared" si="5"/>
         <v>0.18</v>
       </c>
       <c r="N36" s="6">
-        <f>AVERAGE(N35:N35)</f>
+        <f t="shared" si="5"/>
         <v>0.18</v>
       </c>
       <c r="O36" s="6">
-        <f>AVERAGE(O35:O35)</f>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="P36" s="6">
-        <f>AVERAGE(P35:P35)</f>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="Q36" s="6">
-        <f>AVERAGE(Q35:Q35)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="R36" s="6">
-        <f>AVERAGE(R35:R35)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="S36" s="6">
-        <f>AVERAGE(S35:S35)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T36" s="6">
-        <f>AVERAGE(T35:T35)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="U36" s="6">
-        <f>AVERAGE(U35:U35)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="V36" s="6">
-        <f>AVERAGE(V35:V35)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W36" s="6">
-        <f>AVERAGE(W35:W35)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="2:23">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
       <c r="E38" s="8"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="2:23">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
       <c r="E39" s="8"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="2:23">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
       <c r="E40" s="8"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="2:23">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
       <c r="E41" s="8"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="2:23">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
       <c r="E42" s="8"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="2:23">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
       <c r="E43" s="8"/>
       <c r="F43" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B24:B34"/>
+    <mergeCell ref="C24:C34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
     <mergeCell ref="B6:B13"/>
     <mergeCell ref="C6:C11"/>
     <mergeCell ref="B14:B21"/>
     <mergeCell ref="C14:C21"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B34"/>
-    <mergeCell ref="C24:C34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B9:B10 E9:E10">
+    <cfRule type="cellIs" dxfId="17" priority="193" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B14:C14 E14 B15:E19 B35">
-    <cfRule type="cellIs" dxfId="7" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="233" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:D30">
-    <cfRule type="cellIs" dxfId="6" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="126" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:E22">
-    <cfRule type="cellIs" dxfId="5" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="140" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:E35">
-    <cfRule type="cellIs" dxfId="4" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="171" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D12">
+    <cfRule type="cellIs" dxfId="12" priority="105" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20 D31:D33">
-    <cfRule type="cellIs" dxfId="3" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="127" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E7">
-    <cfRule type="cellIs" dxfId="2" priority="489" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="489" operator="equal">
       <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24:F33">
-    <cfRule type="dataBar" priority="491">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5919494b-2c1d-2e3f-5919-494b2c1d2e3f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25:G33">
-    <cfRule type="dataBar" priority="494">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d595c58c-af91-a2b3-d595-c58caf91a2b3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35:I35">
-    <cfRule type="dataBar" priority="507">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{511141d8-2415-2637-5111-41d824152637}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24:P24 Q24:Q30 R24:S24 T24:V27 U24:V24 H25:P25 R25:S25 U25:V25 H26:P26 R26:S26 U26:V26 H27:P27 R27:S27 U27:V27 H28:P28 R28:V28 H29:P29 R29:V29 H30:P30 R30:V30 H31:V33 W24:W33">
-    <cfRule type="dataBar" priority="526">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cd8ddd94-b888-baab-cd8d-dd94b888baab}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35:V35 W35">
-    <cfRule type="dataBar" priority="529">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{49e9591a-3cbc-3e2f-49e9-591a3cbc3e2f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22:V22 W22">
-    <cfRule type="dataBar" priority="530">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c585d59c-be87-b2a3-c585-d59cbe87b2a3}</x14:id>
-        </ext>
-      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
@@ -3741,6 +3211,104 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F24:F33">
+    <cfRule type="dataBar" priority="491">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5919494B-2C1D-2E3F-5919-494B2C1D2E3F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:G7 Q6:S12 V6:W12 F8:P8 T8:U8 F9:P9 R9 T9:U9 F10:P10 R10 T10:U10 F11:P11 R11 T11:U11 F12:P12 R12 T12:U12">
+    <cfRule type="dataBar" priority="488">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{98D888C1-EDDC-EFFE-98D8-88C1EDDCEFFE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35:I35">
+    <cfRule type="dataBar" priority="507">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{511141D8-2415-2637-5111-41D824152637}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:Q15 R14:V16 W14:W20 F16:G19 R17:V19 V20">
+    <cfRule type="dataBar" priority="454">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8FCF9FD9-F5C5-F7E6-8FCF-9FD9F5C5F7E6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:Q15 R14:W19 W20 V20">
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3C4C1C55-7949-7B6A-3C4C-1C5579497B6A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35:V35 W35">
+    <cfRule type="dataBar" priority="529">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{49E9591A-3CBC-3E2F-49E9-591A3CBC3E2F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:G12">
+    <cfRule type="dataBar" priority="400">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1454044D-6157-6372-1454-044D61576372}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G22">
     <cfRule type="dataBar" priority="14">
       <dataBar>
@@ -3750,7 +3318,49 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fdbdeda4-88bb-8a9b-fdbd-eda488bb8a9b}</x14:id>
+          <x14:id>{FDBDEDA4-88BB-8A9B-FDBD-EDA488BB8A9B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25:G33">
+    <cfRule type="dataBar" priority="494">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D595C58C-AF91-A2B3-D595-C58CAF91A2B3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:Q15 H14:P14 Q14:V16 S14:V14 W14:W20 H15:P15 S15:V15 H16:P16 S16:V16 H17:P17 Q17:V19 S17:V17 H18:P18 S18:V18 H19:P19 S19:V19 V20">
+    <cfRule type="dataBar" priority="457">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A444145D-7141-7362-A444-145D71417362}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:Q24">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9EDE8EC9-E5D4-E7F6-9EDE-8EC9E5D4E7F6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3764,21 +3374,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7939692d-cc3f-3e1f-7939-692dcc3f3e1f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6:G7 Q6:S12 V6:W12 F8:P8 T8:U8 F9:P9 R9 T9:U9 F10:P10 R10 T10:U10 F11:P11 R11 T11:U11 F12:P12 R12 T12:U12">
-    <cfRule type="dataBar" priority="488">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{98d888c1-eddc-effe-98d8-88c1eddceffe}</x14:id>
+          <x14:id>{7939692D-CC3F-3E1F-7939-692DCC3F3E1F}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3792,13 +3388,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1c5c9c45-6958-6b7a-1c5c-9c4569586b7a}</x14:id>
+          <x14:id>{1C5C9C45-6958-6B7A-1C5C-9C4569586B7A}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24:Q24">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="H24:P24 Q24:Q30 R24:S24 T24:V27 U24:V24 H25:P25 R25:S25 U25:V25 H26:P26 R26:S26 U26:V26 H27:P27 R27:S27 U27:V27 H28:P28 R28:V28 H29:P29 R29:V29 H30:P30 R30:V30 H31:V33 W24:W33">
+    <cfRule type="dataBar" priority="526">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3806,23 +3402,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9ede8ec9-e5d4-e7f6-9ede-8ec9e5d4e7f6}</x14:id>
+          <x14:id>{CD8DDD94-B888-BAAB-CD8D-DD94B888BAAB}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:B10 E9:E10">
-    <cfRule type="cellIs" dxfId="1" priority="193" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D12">
-    <cfRule type="cellIs" dxfId="0" priority="105" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9:G12">
-    <cfRule type="dataBar" priority="400">
+  <conditionalFormatting sqref="I22:V22 W22">
+    <cfRule type="dataBar" priority="530">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3830,7 +3416,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1454044d-6157-6372-1454-044d61576372}</x14:id>
+          <x14:id>{C585D59C-BE87-B2A3-C585-D59CBE87B2A3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3844,228 +3430,202 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{88c898d1-fdcd-ffee-88c8-98d1fdcdffee}</x14:id>
+          <x14:id>{88C898D1-FDCD-FFEE-88C8-98D1FDCDFFEE}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:Q15 R14:W19 W20 V20">
-    <cfRule type="dataBar" priority="16">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3c4c1c55-7949-7b6a-3c4c-1c5579497b6a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14:Q15 R14:V16 W14:W20 F16:G19 R17:V19 V20">
-    <cfRule type="dataBar" priority="454">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8fcf9fd9-f5c5-f7e6-8fcf-9fd9f5c5f7e6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14:Q15 H14:P14 Q14:V16 S14:V14 W14:W20 H15:P15 S15:V15 H16:P16 S16:V16 H17:P17 Q17:V19 S17:V17 H18:P18 S18:V18 H19:P19 S19:V19 V20">
-    <cfRule type="dataBar" priority="457">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a444145d-7141-7362-a444-145d71417362}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5919494b-2c1d-2e3f-5919-494b2c1d2e3f}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{41715118-3424-3627-4171-511834243627}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>F22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d595c58c-af91-a2b3-d595-c58caf91a2b3}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{5919494B-2C1D-2E3F-5919-494B2C1D2E3F}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>F24:F33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{511141d8-2415-2637-5111-41d824152637}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{98D888C1-EDDC-EFFE-98D8-88C1EDDCEFFE}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>F6:G7 Q6:S12 V6:W12 F8:P8 T8:U8 F9:P9 R9 T9:U9 F10:P10 R10 T10:U10 F11:P11 R11 T11:U11 F12:P12 R12 T12:U12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cd8ddd94-b888-baab-cd8d-dd94b888baab}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{511141D8-2415-2637-5111-41D824152637}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>F35:I35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{49e9591a-3cbc-3e2f-49e9-591a3cbc3e2f}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{8FCF9FD9-F5C5-F7E6-8FCF-9FD9F5C5F7E6}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>F14:Q15 R14:V16 W14:W20 F16:G19 R17:V19 V20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c585d59c-be87-b2a3-c585-d59cbe87b2a3}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{3C4C1C55-7949-7B6A-3C4C-1C5579497B6A}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>F14:Q15 R14:W19 W20 V20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{41715118-3424-3627-4171-511834243627}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{49E9591A-3CBC-3E2F-49E9-591A3CBC3E2F}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>F35:V35 W35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{fdbdeda4-88bb-8a9b-fdbd-eda488bb8a9b}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{1454044D-6157-6372-1454-044D61576372}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>G9:G12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7939692d-cc3f-3e1f-7939-692dcc3f3e1f}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{FDBDEDA4-88BB-8A9B-FDBD-EDA488BB8A9B}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>G22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{98d888c1-eddc-effe-98d8-88c1eddceffe}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{D595C58C-AF91-A2B3-D595-C58CAF91A2B3}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>G25:G33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1c5c9c45-6958-6b7a-1c5c-9c4569586b7a}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{A444145D-7141-7362-A444-145D71417362}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>G14:Q15 H14:P14 Q14:V16 S14:V14 W14:W20 H15:P15 S15:V15 H16:P16 S16:V16 H17:P17 Q17:V19 S17:V17 H18:P18 S18:V18 H19:P19 S19:V19 V20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9ede8ec9-e5d4-e7f6-9ede-8ec9e5d4e7f6}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{9EDE8EC9-E5D4-E7F6-9EDE-8EC9E5D4E7F6}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>G24:Q24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1454044d-6157-6372-1454-044d61576372}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{7939692D-CC3F-3E1F-7939-692DCC3F3E1F}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>H22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{88c898d1-fdcd-ffee-88c8-98d1fdcdffee}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{1C5C9C45-6958-6B7A-1C5C-9C4569586B7A}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>H6:P6 Q6:S12 T6:U6 V6:W12 H7:P7 R7 T7:U7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3c4c1c55-7949-7b6a-3c4c-1c5579497b6a}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{CD8DDD94-B888-BAAB-CD8D-DD94B888BAAB}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>H24:P24 Q24:Q30 R24:S24 T24:V27 U24:V24 H25:P25 R25:S25 U25:V25 H26:P26 R26:S26 U26:V26 H27:P27 R27:S27 U27:V27 H28:P28 R28:V28 H29:P29 R29:V29 H30:P30 R30:V30 H31:V33 W24:W33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8fcf9fd9-f5c5-f7e6-8fcf-9fd9f5c5f7e6}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{C585D59C-BE87-B2A3-C585-D59CBE87B2A3}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>I22:V22 W22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a444145d-7141-7362-a444-145d71417362}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{88C898D1-FDCD-FFEE-88C8-98D1FDCDFFEE}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>Q6:S12 V6:W12 H9:P9 T9:U9 H10:P10 R10 T10:U10 H11:P11 R11 T11:U11 H12:P12 R12 T12:U12</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4074,26 +3634,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:T35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="90" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="4" width="4.50500011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" style="1" width="8.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" style="1" width="13.38000011" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" style="1" width="20.12999916" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" style="1" width="26.37999916" hidden="1" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" style="8" width="10.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="20" style="4" width="10.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="21" max="16384" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="4.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.375" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="8" customWidth="1"/>
+    <col min="7" max="20" width="10.625" style="4" customWidth="1"/>
+    <col min="21" max="21" width="9" style="4" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E2" s="2"/>
       <c r="F2" s="3">
         <v>45196</v>
@@ -4141,72 +3702,72 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="3" spans="2:20">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <f>AVERAGE(F11,F13,F19,F28)</f>
-        <v>0.0175</v>
+        <f t="shared" ref="F3:T3" si="0">AVERAGE(F11,F13,F19,F28)</f>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="G3" s="6">
-        <f>AVERAGE(G11,G13,G19,G28)</f>
-        <v>0.095</v>
+        <f t="shared" si="0"/>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="H3" s="6">
-        <f>AVERAGE(H11,H13,H19,H28)</f>
-        <v>0.1725</v>
+        <f t="shared" si="0"/>
+        <v>0.17249999999999999</v>
       </c>
       <c r="I3" s="6">
-        <f>AVERAGE(I11,I13,I19,I28)</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="J3" s="6">
-        <f>AVERAGE(J11,J13,J19,J28)</f>
-        <v>0.305</v>
+        <f t="shared" si="0"/>
+        <v>0.30499999999999999</v>
       </c>
       <c r="K3" s="6">
-        <f>AVERAGE(K11,K13,K19,K28)</f>
+        <f t="shared" si="0"/>
         <v>0.36</v>
       </c>
       <c r="L3" s="6">
-        <f>AVERAGE(L11,L13,L19,L28)</f>
+        <f t="shared" si="0"/>
         <v>0.4325</v>
       </c>
       <c r="M3" s="6">
-        <f>AVERAGE(M11,M13,M19,M28)</f>
-        <v>0.4825</v>
+        <f t="shared" si="0"/>
+        <v>0.48249999999999998</v>
       </c>
       <c r="N3" s="6">
-        <f>AVERAGE(N11,N13,N19,N28)</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="O3" s="6">
-        <f>AVERAGE(O11,O13,O19,O28)</f>
-        <v>0.515</v>
+        <f t="shared" si="0"/>
+        <v>0.53062500000000001</v>
       </c>
       <c r="P3" s="6">
-        <f>AVERAGE(P11,P13,P19,P28)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>5.6250000000000001E-2</v>
       </c>
       <c r="Q3" s="6">
-        <f>AVERAGE(Q11,Q13,Q19,Q28)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7.1874999999999994E-2</v>
       </c>
       <c r="R3" s="6">
-        <f>AVERAGE(R11,R13,R19,R28)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>9.375E-2</v>
       </c>
       <c r="S3" s="6">
-        <f>AVERAGE(S11,S13,S19,S28)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>9.375E-2</v>
       </c>
       <c r="T3" s="6">
-        <f>AVERAGE(T11,T13,T19,T28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20" ht="20.100000" customHeight="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
         <v>0</v>
@@ -4261,15 +3822,15 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="6" spans="2:20" ht="16.500000" customHeight="1">
-      <c r="B6" s="13" t="s">
+    <row r="6" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>51</v>
+      <c r="C6" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="9">
@@ -4318,11 +3879,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:20" ht="16.500000" customHeight="1">
-      <c r="B7" s="14"/>
-      <c r="C7" s="11"/>
+    <row r="7" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="18"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="9">
@@ -4371,11 +3932,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="16.150000" customHeight="1">
-      <c r="B8" s="14"/>
-      <c r="C8" s="11"/>
+    <row r="8" spans="2:20" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="18"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="9">
@@ -4424,11 +3985,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:20">
-      <c r="B9" s="14"/>
-      <c r="C9" s="11"/>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B9" s="18"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9">
@@ -4477,11 +4038,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:20">
-      <c r="B10" s="14"/>
-      <c r="C10" s="11"/>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B10" s="18"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9">
@@ -4530,81 +4091,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:20">
-      <c r="B11" s="15"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B11" s="19"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="7"/>
       <c r="F11" s="6">
-        <f>AVERAGE(F6:F10)</f>
+        <f t="shared" ref="F11:T11" si="1">AVERAGE(F6:F10)</f>
         <v>0.02</v>
       </c>
       <c r="G11" s="6">
-        <f>AVERAGE(G6:G10)</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="H11" s="6">
-        <f>AVERAGE(H6:H10)</f>
+        <f t="shared" si="1"/>
         <v>0.26</v>
       </c>
       <c r="I11" s="6">
-        <f>AVERAGE(I6:I10)</f>
+        <f t="shared" si="1"/>
         <v>0.32</v>
       </c>
       <c r="J11" s="6">
-        <f>AVERAGE(J6:J10)</f>
+        <f t="shared" si="1"/>
         <v>0.32</v>
       </c>
       <c r="K11" s="6">
-        <f>AVERAGE(K6:K10)</f>
+        <f t="shared" si="1"/>
         <v>0.36</v>
       </c>
       <c r="L11" s="6">
-        <f>AVERAGE(L6:L10)</f>
-        <v>0.55</v>
+        <f t="shared" si="1"/>
+        <v>0.55000000000000004</v>
       </c>
       <c r="M11" s="6">
-        <f>AVERAGE(M6:M10)</f>
+        <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="N11" s="6">
-        <f>AVERAGE(N6:N10)</f>
+        <f t="shared" si="1"/>
         <v>0.62</v>
       </c>
       <c r="O11" s="6">
-        <f>AVERAGE(O6:O10)</f>
+        <f t="shared" si="1"/>
         <v>0.63</v>
       </c>
       <c r="P11" s="6">
-        <f>AVERAGE(P6:P10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q11" s="6">
-        <f>AVERAGE(Q6:Q10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R11" s="6">
-        <f>AVERAGE(R6:R10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S11" s="6">
-        <f>AVERAGE(S6:S10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T11" s="6">
-        <f>AVERAGE(T6:T10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20">
-      <c r="B12" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B12" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>34</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9">
@@ -4629,7 +4190,7 @@
         <v>0.5</v>
       </c>
       <c r="M12" s="9">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="N12" s="9">
         <v>0.6</v>
@@ -4653,81 +4214,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:20">
-      <c r="B13" s="23"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B13" s="25"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="7"/>
       <c r="F13" s="6">
-        <f>AVERAGE(F12:F12)</f>
+        <f t="shared" ref="F13:T13" si="2">AVERAGE(F12:F12)</f>
         <v>0.05</v>
       </c>
       <c r="G13" s="6">
-        <f>AVERAGE(G12:G12)</f>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="H13" s="6">
-        <f>AVERAGE(H12:H12)</f>
+        <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
       <c r="I13" s="6">
-        <f>AVERAGE(I12:I12)</f>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="J13" s="6">
-        <f>AVERAGE(J12:J12)</f>
+        <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
       <c r="K13" s="6">
-        <f>AVERAGE(K12:K12)</f>
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
       <c r="L13" s="6">
-        <f>AVERAGE(L12:L12)</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="M13" s="6">
-        <f>AVERAGE(M12:M12)</f>
-        <v>0.55</v>
+        <f t="shared" si="2"/>
+        <v>0.55000000000000004</v>
       </c>
       <c r="N13" s="6">
-        <f>AVERAGE(N12:N12)</f>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="O13" s="6">
-        <f>AVERAGE(O12:O12)</f>
+        <f t="shared" si="2"/>
         <v>0.65</v>
       </c>
       <c r="P13" s="6">
-        <f>AVERAGE(P12:P12)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q13" s="6">
-        <f>AVERAGE(Q12:Q12)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R13" s="6">
-        <f>AVERAGE(R12:R12)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S13" s="6">
-        <f>AVERAGE(S12:S12)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T13" s="6">
-        <f>AVERAGE(T12:T12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:20">
-      <c r="B14" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>53</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B14" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>47</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9">
@@ -4776,11 +4337,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:20">
-      <c r="B15" s="22"/>
-      <c r="C15" s="17"/>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B15" s="24"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9">
@@ -4829,9 +4390,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:20">
-      <c r="B16" s="22"/>
-      <c r="C16" s="17"/>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B16" s="24"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="7" t="s">
         <v>3</v>
       </c>
@@ -4882,9 +4443,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:20">
-      <c r="B17" s="22"/>
-      <c r="C17" s="17"/>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B17" s="24"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="7" t="s">
         <v>5</v>
       </c>
@@ -4935,9 +4496,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:20">
-      <c r="B18" s="14"/>
-      <c r="C18" s="17"/>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B18" s="18"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="7" t="s">
         <v>6</v>
       </c>
@@ -4988,81 +4549,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:20">
-      <c r="B19" s="15"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="26"/>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B19" s="19"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="7"/>
       <c r="F19" s="6">
-        <f>AVERAGE(F14:F18)</f>
+        <f t="shared" ref="F19:T19" si="3">AVERAGE(F14:F18)</f>
         <v>0</v>
       </c>
       <c r="G19" s="6">
-        <f>AVERAGE(G14:G18)</f>
+        <f t="shared" si="3"/>
         <v>0.18</v>
       </c>
       <c r="H19" s="6">
-        <f>AVERAGE(H14:H18)</f>
-        <v>0.28</v>
+        <f t="shared" si="3"/>
+        <v>0.27999999999999997</v>
       </c>
       <c r="I19" s="6">
-        <f>AVERAGE(I14:I18)</f>
+        <f t="shared" si="3"/>
         <v>0.48</v>
       </c>
       <c r="J19" s="6">
-        <f>AVERAGE(J14:J18)</f>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="K19" s="6">
-        <f>AVERAGE(K14:K18)</f>
-        <v>0.68</v>
+        <f t="shared" si="3"/>
+        <v>0.67999999999999994</v>
       </c>
       <c r="L19" s="6">
-        <f>AVERAGE(L14:L18)</f>
-        <v>0.68</v>
+        <f t="shared" si="3"/>
+        <v>0.67999999999999994</v>
       </c>
       <c r="M19" s="6">
-        <f>AVERAGE(M14:M18)</f>
+        <f t="shared" si="3"/>
         <v>0.78</v>
       </c>
       <c r="N19" s="6">
-        <f>AVERAGE(N14:N18)</f>
+        <f t="shared" si="3"/>
         <v>0.78</v>
       </c>
       <c r="O19" s="6">
-        <f>AVERAGE(O14:O18)</f>
+        <f t="shared" si="3"/>
         <v>0.78</v>
       </c>
       <c r="P19" s="6">
-        <f>AVERAGE(P14:P18)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q19" s="6">
-        <f>AVERAGE(Q14:Q18)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R19" s="6">
-        <f>AVERAGE(R14:R18)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S19" s="6">
-        <f>AVERAGE(S14:S18)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T19" s="6">
-        <f>AVERAGE(T14:T18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20">
-      <c r="B20" s="13" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B20" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>40</v>
+      <c r="C20" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="9">
@@ -5093,27 +4654,27 @@
         <v>0</v>
       </c>
       <c r="O20" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:20">
-      <c r="B21" s="14"/>
-      <c r="C21" s="17"/>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B21" s="18"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="7" t="s">
         <v>14</v>
       </c>
@@ -5149,24 +4710,24 @@
         <v>0</v>
       </c>
       <c r="P21" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Q21" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="R21" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:20">
-      <c r="B22" s="14"/>
-      <c r="C22" s="17"/>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B22" s="18"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="7" t="s">
         <v>15</v>
       </c>
@@ -5217,11 +4778,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:20">
-      <c r="B23" s="14"/>
-      <c r="C23" s="17"/>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B23" s="18"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="9">
@@ -5258,23 +4819,23 @@
         <v>0</v>
       </c>
       <c r="Q23" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R23" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:20">
-      <c r="B24" s="14"/>
-      <c r="C24" s="17"/>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B24" s="18"/>
+      <c r="C24" s="27"/>
       <c r="D24" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="9">
@@ -5323,11 +4884,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:20">
-      <c r="B25" s="14"/>
-      <c r="C25" s="17"/>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B25" s="18"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="9">
@@ -5376,11 +4937,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:20">
-      <c r="B26" s="14"/>
-      <c r="C26" s="17"/>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B26" s="18"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="9">
@@ -5429,11 +4990,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:20">
-      <c r="B27" s="14"/>
-      <c r="C27" s="17"/>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B27" s="18"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="9">
@@ -5482,129 +5043,159 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:20">
-      <c r="B28" s="15"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B28" s="19"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="7"/>
       <c r="F28" s="6">
-        <f>AVERAGE(F20:F27)</f>
+        <f t="shared" ref="F28:T28" si="4">AVERAGE(F20:F27)</f>
         <v>0</v>
       </c>
       <c r="G28" s="6">
-        <f>AVERAGE(G20:G27)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H28" s="6">
-        <f>AVERAGE(H20:H27)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I28" s="6">
-        <f>AVERAGE(I20:I27)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J28" s="6">
-        <f>AVERAGE(J20:J27)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K28" s="6">
-        <f>AVERAGE(K20:K27)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L28" s="6">
-        <f>AVERAGE(L20:L27)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M28" s="6">
-        <f>AVERAGE(M20:M27)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N28" s="6">
-        <f>AVERAGE(N20:N27)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O28" s="6">
-        <f>AVERAGE(O20:O27)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>6.25E-2</v>
       </c>
       <c r="P28" s="6">
-        <f>AVERAGE(P20:P27)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.22500000000000001</v>
       </c>
       <c r="Q28" s="6">
-        <f>AVERAGE(Q20:Q27)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.28749999999999998</v>
       </c>
       <c r="R28" s="6">
-        <f>AVERAGE(R20:R27)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.375</v>
       </c>
       <c r="S28" s="6">
-        <f>AVERAGE(S20:S27)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.375</v>
       </c>
       <c r="T28" s="6">
-        <f>AVERAGE(T20:T27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E29" s="8"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="2:20">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E30" s="8"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="2:20">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E31" s="8"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="2:20">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E32" s="8"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="5:6">
+    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E33" s="8"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="5:6">
+    <row r="34" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E34" s="8"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="5:6">
+    <row r="35" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E35" s="8"/>
       <c r="F35" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="C20:C28"/>
     <mergeCell ref="B6:B11"/>
     <mergeCell ref="C6:C11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="B14:B19"/>
     <mergeCell ref="C14:C19"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="C20:C28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B9:B10 E9:E10">
+    <cfRule type="cellIs" dxfId="9" priority="229" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B12:C12 E12">
-    <cfRule type="cellIs" dxfId="7" priority="301" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="301" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:D26">
-    <cfRule type="cellIs" dxfId="6" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="173" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:E18">
-    <cfRule type="cellIs" dxfId="5" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="190" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D10">
+    <cfRule type="cellIs" dxfId="5" priority="144" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:D18">
+    <cfRule type="cellIs" dxfId="4" priority="109" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:D25">
+    <cfRule type="cellIs" dxfId="3" priority="237" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="cellIs" dxfId="2" priority="127" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="cellIs" dxfId="1" priority="105" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E7">
-    <cfRule type="cellIs" dxfId="2" priority="569" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="569" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5617,77 +5208,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1959d947-6c5d-6e7f-1959-d9476c5d6e7f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21:G27">
-    <cfRule type="dataBar" priority="574">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9ddd8dc4-e8d9-eafb-9ddd-8dc4e8d9eafb}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20:P20 Q20:Q26 R20:S20 T20:T23 H21:P21 R21:S21 H22:P22 R22:S22 H23:P23 R23:S23 H24:P24 R24:T24 H25:P25 R25:T25 H26:P26 R26:T26 H27:T27">
-    <cfRule type="dataBar" priority="606">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e1411158-7444-7667-e141-115874447667}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14:K14 M14:T14 G15:K15 M15:O18 O15:T15 G16:K16 M16 O16:T16 G17:K17 M17 O17:T17 G18:K18 M18 O18:T18 I18:K18 M18 O18:T18 L14:P14 M15 O15:P15 M16 O16:P16 M17 O17:P17 M18 O18:P18 L15:L18">
-    <cfRule type="dataBar" priority="610">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{85c595dc-f2c7-f2e3-85c5-95dcf2c7f2e3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14:K14 M14:T14 F15:K15 M15:O18 O15:T15 F16:K16 M16 O16:T16 F17:K17 M17 O17:T17 F18:K18 M18 O18:T18 L14:P14 M15 O15:P15 M16 O16:P16 M17 O17:P17 M18 O18:P18 L15:L18">
-    <cfRule type="dataBar" priority="19">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{79491956-7c4c-7e6f-7949-19567c4c7e6f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14:K14 M14:T14 F15:K15 M15:O18 O15:T15 F16:K16 M16 O16:T16 F17:K17 M17 O17:T17 F18:K18 M18 O18:T18 L14:P14 M15 O15:P15 M16 O16:P16 M17 O17:P17 M18 O18:P18 L15:L18">
-    <cfRule type="dataBar" priority="23">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8dcd9dd4-f8c8-faeb-8dcd-9dd4f8c8faeb}</x14:id>
+          <x14:id>{1959D947-6C5D-6E7F-1959-D9476C5D6E7F}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5706,8 +5227,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:P6 Q6:S10 T6 H7:P7 T7">
-    <cfRule type="dataBar" priority="554">
+  <conditionalFormatting sqref="F14:K14 M14:T14 F15:K15 M15:O18 O15:T15 F16:K16 M16 O16:T16 F17:K17 M17 O17:T17 F18:K18 M18 O18:T18 L14:P14 M15 O15:P15 M16 O16:P16 M17 O17:P17 M18 O18:P18 L15:L18">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5715,7 +5236,101 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b5f5a5ec-c5f3-c2d3-b5f5-a5ecc5f3c2d3}</x14:id>
+          <x14:id>{79491956-7C4C-7E6F-7949-19567C4C7E6F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="23">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8DCD9DD4-F8C8-FAEB-8DCD-9DD4F8C8FAEB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:M12 O12:Q12 R12:T12 N12:O12">
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{511141D8-2415-2637-5111-41D824152637}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="488">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CD8DDD94-B888-BAAB-CD8D-DD94B888BAAB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:G10">
+    <cfRule type="dataBar" priority="438">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5919494B-2C1D-2E3F-5919-494B2C1D2E3F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21:G27">
+    <cfRule type="dataBar" priority="574">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9DDD8DC4-E8D9-EAFB-9DDD-8DC4E8D9EAFB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:K14 M14:T14 G15:K15 M15:O18 O15:T15 G16:K16 M16 O16:T16 G17:K17 M17 O17:T17 G18:K18 M18 O18:T18 I18:K18 M18 O18:T18 L14:P14 M15 O15:P15 M16 O16:P16 M17 O17:P17 M18 O18:P18 L15:L18">
+    <cfRule type="dataBar" priority="610">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{85C595DC-F2C7-F2E3-85C5-95DCF2C7F2E3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:M12 O12:Q12 H12:M12 O12:P12 Q12:T12 S12:T12 N12:O12">
+    <cfRule type="dataBar" priority="491">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{49E9591A-3CBC-3E2F-49E9-591A3CBC3E2F}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5729,18 +5344,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dd9dcd84-a899-aabb-dd9d-cd84a899aabb}</x14:id>
+          <x14:id>{DD9DCD84-A899-AABB-DD9D-CD84A899AABB}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:B10 E9:E10">
-    <cfRule type="cellIs" dxfId="1" priority="229" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9:G10">
-    <cfRule type="dataBar" priority="438">
+  <conditionalFormatting sqref="H6:P6 Q6:S10 T6 H7:P7 T7">
+    <cfRule type="dataBar" priority="554">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5748,7 +5358,21 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5919494b-2c1d-2e3f-5919-494b2c1d2e3f}</x14:id>
+          <x14:id>{B5F5A5EC-C5F3-C2D3-B5F5-A5ECC5F3C2D3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20:P20 Q20:Q26 R20:S20 T20:T23 H21:P21 R21:S21 H22:P22 R22:S22 H23:P23 R23:S23 H24:P24 R24:T24 H25:P25 R25:T25 H26:P26 R26:T26 H27:T27">
+    <cfRule type="dataBar" priority="606">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E1411158-7444-7667-E141-115874447667}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5762,228 +5386,163 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d595c58c-af91-a2b3-d595-c58caf91a2b3}</x14:id>
+          <x14:id>{D595C58C-AF91-A2B3-D595-C58CAF91A2B3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12:M12 O12:Q12 R12:T12 N12:O12">
-    <cfRule type="dataBar" priority="16">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{511141d8-2415-2637-5111-41d824152637}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12:M12 O12:Q12 R12:T12 N12:O12">
-    <cfRule type="dataBar" priority="488">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cd8ddd94-b888-baab-cd8d-dd94b888baab}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:M12 O12:Q12 H12:M12 O12:P12 Q12:T12 S12:T12 N12:O12">
-    <cfRule type="dataBar" priority="491">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{49e9591a-3cbc-3e2f-49e9-591a3cbc3e2f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D10">
-    <cfRule type="cellIs" dxfId="6" priority="144" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="cellIs" dxfId="5" priority="152" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15:D18">
-    <cfRule type="cellIs" dxfId="0" priority="109" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="0" priority="105" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21:D25">
-    <cfRule type="cellIs" dxfId="7" priority="237" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="3" priority="127" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1959d947-6c5d-6e7f-1959-d9476c5d6e7f}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{1959D947-6C5D-6E7F-1959-D9476C5D6E7F}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>F20:F27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9ddd8dc4-e8d9-eafb-9ddd-8dc4e8d9eafb}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{31712168-4477-4657-3171-216844774657}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>F6:G7 Q6:S10 F8:P8 T8 F9:P9 T9 F10:P10 T10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e1411158-7444-7667-e141-115874447667}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{79491956-7C4C-7E6F-7949-19567C4C7E6F}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{85c595dc-f2c7-f2e3-85c5-95dcf2c7f2e3}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{8DCD9DD4-F8C8-FAEB-8DCD-9DD4F8C8FAEB}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>F14:K14 M14:T14 F15:K15 M15:O18 O15:T15 F16:K16 M16 O16:T16 F17:K17 M17 O17:T17 F18:K18 M18 O18:T18 L14:P14 M15 O15:P15 M16 O16:P16 M17 O17:P17 M18 O18:P18 L15:L18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{79491956-7c4c-7e6f-7949-19567c4c7e6f}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{511141D8-2415-2637-5111-41D824152637}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8dcd9dd4-f8c8-faeb-8dcd-9dd4f8c8faeb}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{CD8DDD94-B888-BAAB-CD8D-DD94B888BAAB}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>F12:M12 O12:Q12 R12:T12 N12:O12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{31712168-4477-4657-3171-216844774657}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{5919494B-2C1D-2E3F-5919-494B2C1D2E3F}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>G9:G10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b5f5a5ec-c5f3-c2d3-b5f5-a5ecc5f3c2d3}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{9DDD8DC4-E8D9-EAFB-9DDD-8DC4E8D9EAFB}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>G21:G27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{dd9dcd84-a899-aabb-dd9d-cd84a899aabb}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{85C595DC-F2C7-F2E3-85C5-95DCF2C7F2E3}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>G14:K14 M14:T14 G15:K15 M15:O18 O15:T15 G16:K16 M16 O16:T16 G17:K17 M17 O17:T17 G18:K18 M18 O18:T18 I18:K18 M18 O18:T18 L14:P14 M15 O15:P15 M16 O16:P16 M17 O17:P17 M18 O18:P18 L15:L18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5919494b-2c1d-2e3f-5919-494b2c1d2e3f}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{49E9591A-3CBC-3E2F-49E9-591A3CBC3E2F}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>G12:M12 O12:Q12 H12:M12 O12:P12 Q12:T12 S12:T12 N12:O12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d595c58c-af91-a2b3-d595-c58caf91a2b3}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{DD9DCD84-A899-AABB-DD9D-CD84A899AABB}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>G20:Q20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{511141d8-2415-2637-5111-41d824152637}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{B5F5A5EC-C5F3-C2D3-B5F5-A5ECC5F3C2D3}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>H6:P6 Q6:S10 T6 H7:P7 T7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cd8ddd94-b888-baab-cd8d-dd94b888baab}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{E1411158-7444-7667-E141-115874447667}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>H20:P20 Q20:Q26 R20:S20 T20:T23 H21:P21 R21:S21 H22:P22 R22:S22 H23:P23 R23:S23 H24:P24 R24:T24 H25:P25 R25:T25 H26:P26 R26:T26 H27:T27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{49e9591a-3cbc-3e2f-49e9-591a3cbc3e2f}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{D595C58C-AF91-A2B3-D595-C58CAF91A2B3}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>Q6:S10 H9:P9 T9 H10:P10 T10</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
